--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia-think/CoT_llama_dbpedia_think_results_analysis.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia-think/CoT_llama_dbpedia_think_results_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\CoT-entity-aligned\CoT-wikidata-dbpedia-think\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82D8A35-E5E2-4817-80D2-B7B606F99A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A2C1B7-5EF6-4A6A-BE57-068BC2FBCCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$101</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="441">
   <si>
     <t>Question</t>
   </si>
@@ -349,330 +349,1119 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>SELECT ?o1 WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; &lt;http://dbpedia.org/ontology/founder&gt; ?o1 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?film WHERE { ?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Stanley_Kubrick&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-ontology:class dbpedia:Musical ; dbpedia-ontology:musicBy dbpedia:Elton_John . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT ?developer WHERE { dbpedia-resource:Skype dbpedia:developer ?developer . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbp:class db:Club ; dbp:partOf db:{{{Bundesliga}}}. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?movie dbo:filmType ?type ; dbo:director db:William_Shatner ; dbo:starring ?uri . FILTER (?type = "Film") }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-owl:Mountain ; dbpedia-owl:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a dbpedia:Film ; dbpedia:starring &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; . }</t>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?o1 WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; &lt;http://dbpedia.org/ontology/founder&gt; ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?film WHERE { ?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Stanley_Kubrick&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-ontology:class dbpedia:Musical ; dbpedia-ontology:musicBy dbpedia:Elton_John . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT ?developer WHERE { dbpedia-resource:Skype dbpedia:developer ?developer . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbp:class db:Club ; dbp:partOf db:{{{Bundesliga}}}. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?movie dbo:filmType ?type ; dbo:director db:William_Shatner ; dbo:starring ?uri . FILTER (?type = "Film") }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-owl:Mountain ; dbpedia-owl:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a dbpedia:Film ; dbpedia:starring &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; &lt;http://dbpedia.org/ontology/deathDate&gt; ?date }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:starring &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; . ?uri dbpedia-owl:starring &lt;http://dbpedia.org/resource/Richard_Burton&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?developer WHERE { dbpedia:minecraft dbpedia-owl:developer ?developer . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?val WHERE { &lt;http://dbpedia.org/resource/The_Lego_Movie&gt; &lt;http://dbpedia.org/ontology/budget&gt; ?budget . ?budget &lt;http://dbpedia.org/ontology/amount&gt; ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?recordLabel ?label WHERE { ?album dbo:artist &lt;http://dbpedia.org/resource/Elvis_Presley&gt; . ?album dbo:releaseDate ?releaseDate . ?album dbo:recordLabel ?recordLabel . ?recordLabel rdfs:label ?label . FILTER (?releaseDate = "1956") // Assuming Elvis's first album was released in 1956 } ORDER BY ?releaseDate LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT ?val WHERE { db:Toy_Story dbpedia:runtime ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation dbo:Bandleader ; dbo:instrument dbo:Trumpet . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?film WHERE { ?film a &lt;http://dbpedia.org/ontology/Film&gt; . OPTIONAL { ?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt; } . OPTIONAL { ?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; } . FILTER ((?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt;) &amp;&amp; (?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt;)) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbprop: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?year WHERE { dbpedia:Rachel_Stevens dbprop:birthDate ?date . BIND(EXTRACT(YEAR FROM ?date) as ?year) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri (COUNT(?s) AS ?frequency) WHERE { ?s dbo:deathCause ?uri . FILTER (!bound(?s)) } GROUP BY ?uri ORDER BY DESC(?frequency) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?num WHERE { &lt;http://dbpedia.org/resource/Yokohama_Marine_Tower&gt; dbpedia-owl:height ?num . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?mountain WHERE { ?mountain a dbpedia-owl:Mountain ; dbpedia-owl:locatedInArea dbpedia:Italy ; dbpedia-owl:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Albert_Einstein&gt; &lt;http://dbpedia.org/ontology/doctoralAdvisor&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:owner dbpedia:Donald_Trump ; a dbpedia-owl:Company . MINUS { ?uri dbpedia-owl:status ?closed } }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?o1 WHERE { dbpedia2:Tom_Cruise dbpedia:spouse ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { &lt;http://dbpedia.org/resource/Eurasia&gt; dbo:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { dbpedia:The_Interpretation_of_Dreams dbpedia-owl:author ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbpedia:John_Adams dbpedia-owl:birthDate ?val }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:European_Union dbo:populationTotal ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?currency WHERE { &lt;http://dbpedia.org/resource/China&gt; rdfs:seeAlso ?currency ; &lt;http://dbpedia.org/ontology/type&gt; "currency" . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:William_Shakespeare dbpedia-owl:deathDate ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbp:Rocket ?type . ?uri dbp:launchSite db:Baikonur_Cosmodrome . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?island WHERE { ?island dbpedia-owl:instanceOf &lt;http://dbpedia.org/ontology/Island&gt;; owl:someValuesFrom ?country. ?island dbpedia-owl:country ?country. FILTER(?country = &lt;http://dbpedia.org/resource/Japan&gt;). }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/World_of_Warcraft&gt; dbpedia-owl:developer ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:Company dbpedia-resource:Company ; dbpedia-owl:industry dbpedia-resource:Advertising }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { VALUES ?types { dbpedia:University dbpedia:College } dbpedia:Angela_Merkel dbpedia-owl:almaMater ?uri . ?uri a ?types . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?uri dbo:starring &lt;http://dbpedia.org/resource/Neil_Patrick_Harris&gt; . ?uri rdf:type ?type . ?type rdfs:subClassOf* dbo:TelevisionShow . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbpedia-owl:starring dbpedia:Tom_Cruise. ?uri a dbpedia-owl:Film. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Mount_Everest&gt; dbpedia-owl:locatedInArea ?location . ?location dbpedia-owl:country ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/John_F._Kennedy&gt; &lt;http://dbpedia.org/ontology/deathPlace&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?river WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; &lt;http://dbpedia.org/ontology/crosses&gt; ?river . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:instanceOf dbpedia-owl:Swimmer ; dbpedia-owl:birthdayPlace &lt;http://dbpedia.org/resource/Moscow&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?s1 WHERE { ?s1 &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/Film&gt; . ?s1 &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Alec_Guinness&gt; . ?s1 &lt;http://dbpedia.org/ontology/releaseDate&gt; ?o1 . } ORDER BY DESC(?o1) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { ?res a dbpedia-owl:Mountain . ?res dbpedia-owl:elevation ?elevation . ?res dbpedia-owl:continent dbpedia:Europe . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { db:cairo dbpedia-owl:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbpedia-owl:birthPlace &lt;http://dbpedia.org/resource/Heraklion&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?child) as ?c) WHERE { &lt;http://dbpedia.org/resource/Benjamin_Franklin&gt; dbpedia-owl:child ?child . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Düsseldorf_Airport&gt; dbpedia:altitude ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?res WHERE { dbpedia:Mecca dbpedia:country ?res . ?res a dbpedia:Country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia: Claudia_Schiffer dbpedia:height ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:The_Pillars_of_the_Earth dbo:author ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?genre WHERE { &lt;http://dbpedia.org/resource/Lou_Reed&gt; &lt;http://dbpedia.org/ontology/genre&gt; ?genre . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Frank_Sinatra&gt; dbpedia-owl:birthPlace ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/City&gt; ; &lt;http://dbpedia.org/ontology/populationTotal&gt; ?population . } ORDER BY ASC(?population) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-owl:TelevisionShow ; dbpedia-owl:creator dbpedia:Walt_Disney . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?holiday WHERE { ?holiday a dbpedia-owl:Holiday ; rdfs:seeAlso ?country . FILTER (strstarts(str(?country), "http://dbpedia.org/resource/Sweden")) . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Apple_Inc_ dbpedia:netIncome ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?deathPlace WHERE { &lt;http://dbpedia.org/resource/Abraham_Lincoln&gt; dbpedia:deathPlace ?deathPlace }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Himalayas&gt; foaf:topic ?country . ?country dbpedia-owl:capital ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?country WHERE { &lt;http://dbpedia.org/resource/Limerick_Lake&gt; dbo:country ?country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?val WHERE { db:Michael_Jordan a db:Person; db:height ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film a dbpedia:Film ; dbpedia:director &lt;http://dbpedia.org/resource/Clint_Eastwood&gt; ; dbpedia:starring &lt;http://dbpedia.org/resource/Clint_Eastwood&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:currency &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt;. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbpedia:Iraq dbpedia-owl:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?uri WHERE { ?uri owl:intersectionOf (?type rdf:type dbpedia-owl:Holiday) . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbprop: &lt;http://dbpedia.org/prop/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:PoliticalParty ; dbprop:country &lt;http://dbpedia.org/resource/Greece&gt; ; dbprop:ideology &lt;http://dbpedia.org/resource/Pro-Europeanism&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Charmed&gt; &lt;http://dbpedia.org/ontology/starring&gt; ?actor . ?actor &lt;http://dbpedia.org/ontology/birthDate&gt; ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Three_Dancers dbpedia-owl:author ?painter . ?painter dbpedia-owl:styleOrMovement ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?actor WHERE { ?actor a dbpedia:Actor . ?actor dbpedia:birthPlace ?birthPlace . ?birthPlace dbpedia:country ?country . ?country dbpedia:fullUrl &lt;http://dbpedia.org/resource/Germany&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Brooklyn_Bridge dbpedia-owl:architect ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Game_of_Thrones&gt; &lt;http://dbpedia.org/ontology/composer&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Film/dbpedia:director &lt;http://dbpedia.org/resource/Francis_Ford_Coppola&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?name WHERE { dbpedia:adele dbpedia-owl:birthName ?name. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?album WHERE { ?album a &lt;http://dbpedia.org/ontology/Album&gt; . ?album &lt;http://dbpedia.org/ontology/artist&gt; &lt;http://dbpedia.org/resource/Queen_(band)&gt; . ?album &lt;http://dbpedia.org/ontology/releaseDate&gt; ?releaseDate . FILTER (!bound(?releaseDate)) } ORDER BY DESC(?releaseDate) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?currency WHERE { dbpedia-owl:Czech_Republic dbpedia-owl:currency ?currency . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT ?uri WHERE { ?uri dbpedia:birthPlace dbp:Vienna . ?uri dbpedia:deathPlace ?deathLocation . FILTER(?deathLocation owl:sameAs dbp:Berlin) } UNION { ?uri dbpedia:deathPlace dbp:Berlin . ?uri dbpedia:birthPlace ?birthLocation . FILTER(?birthLocation owl:sameAs dbp:Vienna) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?bridge WHERE { ?bridge a dbpedia-owl:Bridge ; dbpedia-owl:crosses dbpedia:Seine . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:occupation res:Musician . ?x dbpedia:type Book ; dbpedia:author ?uri . } GROUP BY ?uri ORDER BY DESC(COUNT(?x)) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-ontology:TelevisionShow . ?uri dbpedia-ontology:creator &lt;http://dbpedia.org/resource/John_Cleese&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-prop: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { ?uri dbpedia-owl:Writer true . ?uri dbpedia-prop:nobelPrize ?award . FILTER (strstarts(str(?award), "Nobel Prize in Literature")) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; &lt;http://dbpedia.org/ontology/discoverer&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { ?res db:occupation res:Bandleader . ?res db:instrument res:Trumpet . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; . ?uri &lt;http://dbpedia.org/ontology/heightInCm&gt; ?height . FILTER(?height &gt; 200) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri rdf:type &lt;http://dbpedia.org/ontology/Film&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Gere&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?o1 WHERE { &lt;http://dbpedia.org/resource/Canada&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:SoccerPlayer ?soccerPlayerType ; dbo:birthPlace ?birthPlace . ?birthPlace rdfs:label "Malta" . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Cameroon&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub rdfs:subClassOf* dbpedia-owl:ProgrammingLanguage . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Astronaut dbo:nationality ?nationality . FILTER ( (?nationality = dbo:Soviet_Union) OR (?nationality = dbo:Russia) ) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Family_Guy&gt; &lt;http://dbpedia.org/ontology/creator&gt; ?uri}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?population WHERE { dbpedia:Mexico_City dbpedia-owl:populationTotal ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?creator WHERE { dbpedia:Batman db:creator ?creator . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?number WHERE { &lt;http://dbpedia.org/resource/Canberra&gt; &lt;http://dbpedia.org/ontology/populationTotal&gt; ?number . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { &lt;http://dbpedia.org/resource/North_Rhine-Westphalia&gt; dbpedia:areaTotal ?val }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?numberOfEmployees WHERE { dbpedia:IBM dbpedia-owl:numberOfEmployees ?numberOfEmployees . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?value WHERE { db: Pulp_Fiction dbpedia: budget ?value . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?film WHERE { &lt;http://dbpedia.org/resource/Jesse_Eisenberg&gt; &lt;http://dbpedia.org/ontology/starring&gt; ?film . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?type dbpedia-owl:subclassOf dbpedia:Film . ?uri dbpedia-owl:type ?type ; dbpedia-owl:country dbpedia:Denmark . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?country WHERE { dbpedia:Himalayas dbpedia-owl:country ?country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { db:Angela_Merkel dbo:almaMater ?res . ?res rdf:type dbo:EducationalInstitution . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?creator WHERE { &lt;http://dbpedia.org/resource/Goofy&gt; &lt;http://dbpedia.org/ontology/creator&gt; ?creator . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { res:Penguin_Books dbo:founder ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:director res:Stanley_Kubrick }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Musical ; dbo:musicBy res:Elton_John }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { res:Skype dbo:developer ?uri. }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/SoccerClub&gt; ; &lt;http://dbpedia.org/ontology/league&gt; &lt;http://dbpedia.org/resource/Bundesliga&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?x dbo:director res:William_Shatner ; dbo:starring ?uri }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Mountain&gt; ; &lt;http://dbpedia.org/ontology/elevation&gt; ?elevation } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://dbpedia.org/ontology/Film&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; }</t>
   </si>
   <si>
     <t>SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; &lt;http://dbpedia.org/ontology/deathDate&gt; ?date }</t>
   </si>
   <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:starring &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; . ?uri dbpedia-owl:starring &lt;http://dbpedia.org/resource/Richard_Burton&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?developer WHERE { dbpedia:minecraft dbpedia-owl:developer ?developer . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?val WHERE { &lt;http://dbpedia.org/resource/The_Lego_Movie&gt; &lt;http://dbpedia.org/ontology/budget&gt; ?budget . ?budget &lt;http://dbpedia.org/ontology/amount&gt; ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?recordLabel ?label WHERE { ?album dbo:artist &lt;http://dbpedia.org/resource/Elvis_Presley&gt; . ?album dbo:releaseDate ?releaseDate . ?album dbo:recordLabel ?recordLabel . ?recordLabel rdfs:label ?label . FILTER (?releaseDate = "1956") // Assuming Elvis's first album was released in 1956 } ORDER BY ?releaseDate LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT ?val WHERE { db:Toy_Story dbpedia:runtime ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation dbo:Bandleader ; dbo:instrument dbo:Trumpet . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?film WHERE { ?film a &lt;http://dbpedia.org/ontology/Film&gt; . OPTIONAL { ?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt; } . OPTIONAL { ?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; } . FILTER ((?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt;) &amp;&amp; (?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt;)) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbprop: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?year WHERE { dbpedia:Rachel_Stevens dbprop:birthDate ?date . BIND(EXTRACT(YEAR FROM ?date) as ?year) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri (COUNT(?s) AS ?frequency) WHERE { ?s dbo:deathCause ?uri . FILTER (!bound(?s)) } GROUP BY ?uri ORDER BY DESC(?frequency) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?num WHERE { &lt;http://dbpedia.org/resource/Yokohama_Marine_Tower&gt; dbpedia-owl:height ?num . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?mountain WHERE { ?mountain a dbpedia-owl:Mountain ; dbpedia-owl:locatedInArea dbpedia:Italy ; dbpedia-owl:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Albert_Einstein&gt; &lt;http://dbpedia.org/ontology/doctoralAdvisor&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:owner dbpedia:Donald_Trump ; a dbpedia-owl:Company . MINUS { ?uri dbpedia-owl:status ?closed } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia2: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?o1 WHERE { dbpedia2:Tom_Cruise dbpedia:spouse ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { &lt;http://dbpedia.org/resource/Eurasia&gt; dbo:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { dbpedia:The_Interpretation_of_Dreams dbpedia-owl:author ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbpedia:John_Adams dbpedia-owl:birthDate ?val }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:European_Union dbo:populationTotal ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT ?currency WHERE { &lt;http://dbpedia.org/resource/China&gt; rdfs:seeAlso ?currency ; &lt;http://dbpedia.org/ontology/type&gt; "currency" . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:William_Shakespeare dbpedia-owl:deathDate ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbp:Rocket ?type . ?uri dbp:launchSite db:Baikonur_Cosmodrome . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?island WHERE { ?island dbpedia-owl:instanceOf &lt;http://dbpedia.org/ontology/Island&gt;; owl:someValuesFrom ?country. ?island dbpedia-owl:country ?country. FILTER(?country = &lt;http://dbpedia.org/resource/Japan&gt;). }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/World_of_Warcraft&gt; dbpedia-owl:developer ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-resource: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:Company dbpedia-resource:Company ; dbpedia-owl:industry dbpedia-resource:Advertising }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { VALUES ?types { dbpedia:University dbpedia:College } dbpedia:Angela_Merkel dbpedia-owl:almaMater ?uri . ?uri a ?types . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?uri dbo:starring &lt;http://dbpedia.org/resource/Neil_Patrick_Harris&gt; . ?uri rdf:type ?type . ?type rdfs:subClassOf* dbo:TelevisionShow . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbpedia-owl:starring dbpedia:Tom_Cruise. ?uri a dbpedia-owl:Film. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Mount_Everest&gt; dbpedia-owl:locatedInArea ?location . ?location dbpedia-owl:country ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/John_F._Kennedy&gt; &lt;http://dbpedia.org/ontology/deathPlace&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?river WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; &lt;http://dbpedia.org/ontology/crosses&gt; ?river . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:instanceOf dbpedia-owl:Swimmer ; dbpedia-owl:birthdayPlace &lt;http://dbpedia.org/resource/Moscow&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?s1 WHERE { ?s1 &lt;http://dbpedia.org/ontology/subject&gt; &lt;http://dbpedia.org/resource/Film&gt; . ?s1 &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Alec_Guinness&gt; . ?s1 &lt;http://dbpedia.org/ontology/releaseDate&gt; ?o1 . } ORDER BY DESC(?o1) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { ?res a dbpedia-owl:Mountain . ?res dbpedia-owl:elevation ?elevation . ?res dbpedia-owl:continent dbpedia:Europe . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { db:cairo dbpedia-owl:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbpedia-owl:birthPlace &lt;http://dbpedia.org/resource/Heraklion&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?child) as ?c) WHERE { &lt;http://dbpedia.org/resource/Benjamin_Franklin&gt; dbpedia-owl:child ?child . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Düsseldorf_Airport&gt; dbpedia:altitude ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?res WHERE { dbpedia:Mecca dbpedia:country ?res . ?res a dbpedia:Country . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia: Claudia_Schiffer dbpedia:height ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:The_Pillars_of_the_Earth dbo:author ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?genre WHERE { &lt;http://dbpedia.org/resource/Lou_Reed&gt; &lt;http://dbpedia.org/ontology/genre&gt; ?genre . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Frank_Sinatra&gt; dbpedia-owl:birthPlace ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/City&gt; ; &lt;http://dbpedia.org/ontology/populationTotal&gt; ?population . } ORDER BY ASC(?population) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-owl:TelevisionShow ; dbpedia-owl:creator dbpedia:Walt_Disney . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?holiday WHERE { ?holiday a dbpedia-owl:Holiday ; rdfs:seeAlso ?country . FILTER (strstarts(str(?country), "http://dbpedia.org/resource/Sweden")) . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Apple_Inc_ dbpedia:netIncome ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?deathPlace WHERE { &lt;http://dbpedia.org/resource/Abraham_Lincoln&gt; dbpedia:deathPlace ?deathPlace }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Himalayas&gt; foaf:topic ?country . ?country dbpedia-owl:capital ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?country WHERE { &lt;http://dbpedia.org/resource/Limerick_Lake&gt; dbo:country ?country . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?val WHERE { db:Michael_Jordan a db:Person; db:height ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film a dbpedia:Film ; dbpedia:director &lt;http://dbpedia.org/resource/Clint_Eastwood&gt; ; dbpedia:starring &lt;http://dbpedia.org/resource/Clint_Eastwood&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:currency &lt;http://dbpedia.org/resource/West_African_CFA_franc&gt;. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbpedia:Iraq dbpedia-owl:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?uri WHERE { ?uri owl:intersectionOf (?type rdf:type dbpedia-owl:Holiday) . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbprop: &lt;http://dbpedia.org/prop/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:PoliticalParty ; dbprop:country &lt;http://dbpedia.org/resource/Greece&gt; ; dbprop:ideology &lt;http://dbpedia.org/resource/Pro-Europeanism&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Charmed&gt; &lt;http://dbpedia.org/ontology/starring&gt; ?actor . ?actor &lt;http://dbpedia.org/ontology/birthDate&gt; ?date . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Three_Dancers dbpedia-owl:author ?painter . ?painter dbpedia-owl:styleOrMovement ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/&gt; SELECT DISTINCT ?actor WHERE { ?actor a dbpedia:Actor . ?actor dbpedia:birthPlace ?birthPlace . ?birthPlace dbpedia:country ?country . ?country dbpedia:fullUrl &lt;http://dbpedia.org/resource/Germany&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Brooklyn_Bridge dbpedia-owl:architect ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Game_of_Thrones&gt; &lt;http://dbpedia.org/ontology/composer&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:Film/dbpedia:director &lt;http://dbpedia.org/resource/Francis_Ford_Coppola&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?name WHERE { dbpedia:adele dbpedia-owl:birthName ?name. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?album WHERE { ?album a &lt;http://dbpedia.org/ontology/Album&gt; . ?album &lt;http://dbpedia.org/ontology/artist&gt; &lt;http://dbpedia.org/resource/Queen_(band)&gt; . ?album &lt;http://dbpedia.org/ontology/releaseDate&gt; ?releaseDate . FILTER (!bound(?releaseDate)) } ORDER BY DESC(?releaseDate) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?currency WHERE { dbpedia-owl:Czech_Republic dbpedia-owl:currency ?currency . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT ?uri WHERE { ?uri dbpedia:birthPlace dbp:Vienna . ?uri dbpedia:deathPlace ?deathLocation . FILTER(?deathLocation owl:sameAs dbp:Berlin) } UNION { ?uri dbpedia:deathPlace dbp:Berlin . ?uri dbpedia:birthPlace ?birthLocation . FILTER(?birthLocation owl:sameAs dbp:Vienna) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?bridge WHERE { ?bridge a dbpedia-owl:Bridge ; dbpedia-owl:crosses dbpedia:Seine . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:occupation res:Musician . ?x dbpedia:type Book ; dbpedia:author ?uri . } GROUP BY ?uri ORDER BY DESC(COUNT(?x)) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-ontology:TelevisionShow . ?uri dbpedia-ontology:creator &lt;http://dbpedia.org/resource/John_Cleese&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-prop: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { ?uri dbpedia-owl:Writer true . ?uri dbpedia-prop:nobelPrize ?award . FILTER (strstarts(str(?award), "Nobel Prize in Literature")) }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; &lt;http://dbpedia.org/ontology/discoverer&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { ?res db:occupation res:Bandleader . ?res db:instrument res:Trumpet . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; . ?uri &lt;http://dbpedia.org/ontology/heightInCm&gt; ?height . FILTER(?height &gt; 200) }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri rdf:type &lt;http://dbpedia.org/ontology/Film&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Gere&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?o1 WHERE { &lt;http://dbpedia.org/resource/Canada&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:SoccerPlayer ?soccerPlayerType ; dbo:birthPlace ?birthPlace . ?birthPlace rdfs:label "Malta" . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Cameroon&gt; &lt;http://dbpedia.org/ontology/capital&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub rdfs:subClassOf* dbpedia-owl:ProgrammingLanguage . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Astronaut dbo:nationality ?nationality . FILTER ( (?nationality = dbo:Soviet_Union) OR (?nationality = dbo:Russia) ) }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Family_Guy&gt; &lt;http://dbpedia.org/ontology/creator&gt; ?uri}</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?population WHERE { dbpedia:Mexico_City dbpedia-owl:populationTotal ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?creator WHERE { dbpedia:Batman db:creator ?creator . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?number WHERE { &lt;http://dbpedia.org/resource/Canberra&gt; &lt;http://dbpedia.org/ontology/populationTotal&gt; ?number . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { &lt;http://dbpedia.org/resource/North_Rhine-Westphalia&gt; dbpedia:areaTotal ?val }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?numberOfEmployees WHERE { dbpedia:IBM dbpedia-owl:numberOfEmployees ?numberOfEmployees . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?value WHERE { db: Pulp_Fiction dbpedia: budget ?value . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?film WHERE { &lt;http://dbpedia.org/resource/Jesse_Eisenberg&gt; &lt;http://dbpedia.org/ontology/starring&gt; ?film . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?type dbpedia-owl:subclassOf dbpedia:Film . ?uri dbpedia-owl:type ?type ; dbpedia-owl:country dbpedia:Denmark . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?country WHERE { dbpedia:Himalayas dbpedia-owl:country ?country . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/type&gt; &lt;http://dbpedia.org/ontology/Country&gt; . ?uri &lt;http://dbpedia.org/ontology/areaTotal&gt; ?area . } ORDER BY DESC(?area) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { db:Angela_Merkel dbo:almaMater ?res . ?res rdf:type dbo:EducationalInstitution . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?creator WHERE { &lt;http://dbpedia.org/resource/Goofy&gt; &lt;http://dbpedia.org/ontology/creator&gt; ?creator . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { res:Penguin_Books dbo:founder ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:director res:Stanley_Kubrick }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Musical ; dbo:musicBy res:Elton_John }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { res:Skype dbo:developer ?uri. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/SoccerClub&gt; ; &lt;http://dbpedia.org/ontology/league&gt; &lt;http://dbpedia.org/resource/Bundesliga&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?x dbo:director res:William_Shatner ; dbo:starring ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Mountain&gt; ; &lt;http://dbpedia.org/ontology/elevation&gt; ?elevation } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://dbpedia.org/ontology/Film&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; }</t>
-  </si>
-  <si>
     <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Burton&gt; }</t>
   </si>
   <si>
@@ -1072,6 +1861,9 @@
     <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
   </si>
   <si>
+    <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
+  </si>
+  <si>
     <t>['http://dbpedia.org/resource/Ottawa']</t>
   </si>
   <si>
@@ -1220,9 +2012,6 @@
   </si>
   <si>
     <t>['http://dbpedia.org/resource/A._J._Bramlett', 'http://dbpedia.org/resource/A._J._Brodeur', 'http://dbpedia.org/resource/A._J._Davis_(basketball)', 'http://dbpedia.org/resource/A._J._Edu', 'http://dbpedia.org/resource/A._J._Granger', 'http://dbpedia.org/resource/A._J._Hammons', 'http://dbpedia.org/resource/A._W._Davis', 'http://dbpedia.org/resource/A._W._Holt', 'http://dbpedia.org/resource/A.C._Green', "http://dbpedia.org/resource/A'Darius_Pegues", 'http://dbpedia.org/resource/Aamir_Simms', 'http://dbpedia.org/resource/Aaric_Murray', 'http://dbpedia.org/resource/Aaron_Anderson_(basketball)', 'http://dbpedia.org/resource/Aaron_Epps', 'http://dbpedia.org/resource/Aaron_Falzon', 'http://dbpedia.org/resource/Aaron_Gordon', 'http://dbpedia.org/resource/Aaron_Gray', 'http://dbpedia.org/resource/Aaron_Harper_(basketball)', 'http://dbpedia.org/resource/Aaron_James_(basketball)', 'http://dbpedia.org/resource/Aaron_McGhee', 'http://dbpedia.org/resource/Aaron_White_(basketball)', 'http://dbpedia.org/resource/Aaron_Williams_(basketball)', 'http://dbpedia.org/resource/Abdel_Kader_Sylla', 'http://dbpedia.org/resource/Abdelrahman_Abdelhaleem', 'http://dbpedia.org/resource/Abdou_Badji', 'http://dbpedia.org/resource/Abdoul_Karim_Coulibaly', 'http://dbpedia.org/resource/Abdul_Jeelani', 'http://dbpedia.org/resource/Abdul_Shamsid-Deen', 'http://dbpedia.org/resource/Abdul_Yahaya', 'http://dbpedia.org/resource/Abdul-Malik_Abu', 'http://dbpedia.org/resource/Abdullah_Matalkeh', 'http://dbpedia.org/resource/Abdullahi_Kuso', 'http://dbpedia.org/resource/Abibou_Toure', 'http://dbpedia.org/resource/Abu_Kigab', 'http://dbpedia.org/resource/Ace_Custis', 'http://dbpedia.org/resource/Ace_Gruenig', 'http://dbpedia.org/resource/Acie_Earl', 'http://dbpedia.org/resource/AD_Smith', 'http://dbpedia.org/resource/Adam_Chubb', 'http://dbpedia.org/resource/Adam_Hrycaniuk', 'http://dbpedia.org/resource/Adam_Keefe_(basketball)', 'http://dbpedia.org/resource/Adam_Kemp', 'http://dbpedia.org/resource/Adam_Koch', 'http://dbpedia.org/resource/Adam_Łapeta', 'http://dbpedia.org/resource/Adam_Morrison', 'http://dbpedia.org/resource/Adam_Parada', 'http://dbpedia.org/resource/Adam_Pecháček', 'http://dbpedia.org/resource/Adam_Woodbury', 'http://dbpedia.org/resource/Adama_Diakhite', 'http://dbpedia.org/resource/Adama_Sanogo', 'http://dbpedia.org/resource/Adarrial_Smylie', 'http://dbpedia.org/resource/Adem_Bona', 'http://dbpedia.org/resource/Adem_Ören', 'http://dbpedia.org/resource/Adnan_Hodžić', 'http://dbpedia.org/resource/Adonal_Foyle', 'http://dbpedia.org/resource/Adreian_Payne', 'http://dbpedia.org/resource/Adrian_Branch', 'http://dbpedia.org/resource/Adrian_Caldwell', 'http://dbpedia.org/resource/Adrian_Moss_(basketball,_born_1981)', 'http://dbpedia.org/resource/Adrián_Zamora', 'http://dbpedia.org/resource/Aerick_Sanders', 'http://dbpedia.org/resource/Agustín_Caffaro', 'http://dbpedia.org/resource/Aher_Uguak', 'http://dbpedia.org/resource/Ahmad_Ibrahim_(basketball)', 'http://dbpedia.org/resource/Ahmad_Nivins', 'http://dbpedia.org/resource/Ahsan_Asadullah', 'http://dbpedia.org/resource/Aidan_Igiehon', 'http://dbpedia.org/resource/Ajak_Magot', 'http://dbpedia.org/resource/Ajdin_Penava', 'http://dbpedia.org/resource/Ajou_Deng', 'http://dbpedia.org/resource/Akin_Akingbala', 'http://dbpedia.org/resource/Al_Beard', 'http://dbpedia.org/resource/Al_Bunge', 'http://dbpedia.org/resource/Al_Carlson_(basketball)', 'http://dbpedia.org/resource/Al_Cueto', 'http://dbpedia.org/resource/Al_Fleming_(basketball)', 'http://dbpedia.org/resource/Al_Harrington', 'http://dbpedia.org/resource/Al_Henry', 'http://dbpedia.org/resource/Al_Horford', 'http://dbpedia.org/resource/Al_Jefferson', 'http://dbpedia.org/resource/Al_Miksis', 'http://dbpedia.org/resource/Al_Salvadori', 'http://dbpedia.org/resource/Al_Sanders_(basketball)', 'http://dbpedia.org/resource/Al_Thornton', 'http://dbpedia.org/resource/Al_Tucker', 'http://dbpedia.org/resource/Al-Farouq_Aminu', 'http://dbpedia.org/resource/Alaa_Abdelnaby', 'http://dbpedia.org/resource/Alade_Aminu', 'http://dbpedia.org/resource/Alain_Koffi', 'http://dbpedia.org/resource/Alan_Hardy_(basketball)', 'http://dbpedia.org/resource/Alan_Henderson', 'http://dbpedia.org/resource/Alan_Ogg', 'http://dbpedia.org/resource/Alan_Wiggins_Jr.', 'http://dbpedia.org/resource/Alan_Williams_(basketball)', 'http://dbpedia.org/resource/Albert_Almanza', 'http://dbpedia.org/resource/Albert_Burditt', 'http://dbpedia.org/resource/Albert_Culton', 'http://dbpedia.org/resource/Alberto_Corbacho', 'http://dbpedia.org/resource/Alberto_Herreros', 'http://dbpedia.org/resource/Alec_Brown', 'http://dbpedia.org/resource/Alec_Kessler', 'http://dbpedia.org/resource/Alec_Peters', 'http://dbpedia.org/resource/Aleem_Ford', 'http://dbpedia.org/resource/Alekos_Petroulas', 'http://dbpedia.org/resource/Aleks_Marić', 'http://dbpedia.org/resource/Aleksandar_Lazić', 'http://dbpedia.org/resource/Aleksandar_Pavlović', 'http://dbpedia.org/resource/Aleksandar_Radojević', 'http://dbpedia.org/resource/Aleksandar_Šterjov', 'http://dbpedia.org/resource/Aleksandar_Todorović', 'http://dbpedia.org/resource/Aleksandar_Vezenkov', 'http://dbpedia.org/resource/Aleksandar_Zečević_(basketball,_born_1996)', 'http://dbpedia.org/resource/Aleksandr_Boloshev', 'http://dbpedia.org/resource/Aleksej_Pokuševski', 'http://dbpedia.org/resource/Alen_Smailagić', 'http://dbpedia.org/resource/Alessandro_Tonolli', 'http://dbpedia.org/resource/Alex_Chubrevich', 'http://dbpedia.org/resource/Alex_Crisano', 'http://dbpedia.org/resource/Alex_Davis_(basketball)', 'http://dbpedia.org/resource/Alex_English', 'http://dbpedia.org/resource/Alex_Galindo', 'http://dbpedia.org/resource/Alex_Gilbert_(basketball)', 'http://dbpedia.org/resource/Alex_Groza', 'http://dbpedia.org/resource/Alex_Hannum', 'http://dbpedia.org/resource/Alex_Holcombe', 'http://dbpedia.org/resource/Alex_Jensen', 'http://dbpedia.org/resource/Alex_Jones_(basketball)', 'http://dbpedia.org/resource/Alex_King_(basketball)', 'http://dbpedia.org/resource/Alex_Kirk', 'http://dbpedia.org/resource/Alex_Len', 'http://dbpedia.org/resource/Alex_Liatsos', 'http://dbpedia.org/resource/Álex_Mumbrú', 'http://dbpedia.org/resource/Alex_Murphy_(basketball)', 'http://dbpedia.org/resource/Alex_Oriakhi', 'http://dbpedia.org/resource/Alex_Poythress', 'http://dbpedia.org/resource/Alex_Rosenberg_(basketball)', 'http://dbpedia.org/resource/Alex_Stepheson', 'http://dbpedia.org/resource/Alex_Stivrins', 'http://dbpedia.org/resource/Álex_Suárez_(basketball)', 'http://dbpedia.org/resource/Alex_Tyus', 'http://dbpedia.org/resource/Alexander_Belov', 'http://dbpedia.org/resource/Alexander_Ermolinskij', 'http://dbpedia.org/resource/Alexander_Johnson_(basketball)__Alexander_Johnson__1', 'http://dbpedia.org/resource/Alexander_Kühl', 'http://dbpedia.org/resource/Alexander_Lokhmanchuk', 'http://dbpedia.org/resource/Alexander_Nelcha', 'http://dbpedia.org/resource/Alexander_Petrenko', 'http://dbpedia.org/resource/Alexander_Sizonenko', 'http://dbpedia.org/resource/Alexander_Volkov_(basketball)', 'http://dbpedia.org/resource/Alexander_Zakharov_(basketball)', 'http://dbpedia.org/resource/Alexandros_Sigkounas', 'http://dbpedia.org/resource/Alexandros_Varitimiadis', 'http://dbpedia.org/resource/Alexandru_Olah', 'http://dbpedia.org/resource/Alexis_Ajinça', 'http://dbpedia.org/resource/Alexis_Wangmene', 'http://dbpedia.org/resource/Alexis_Yetna', 'http://dbpedia.org/resource/Alfa_Ntiallo', 'http://dbpedia.org/resource/Alfons_Alzamora', 'http://dbpedia.org/resource/Alfonso_Reyes_(basketball)', 'http://dbpedia.org/resource/Alfonzo_McKinnie', 'http://dbpedia.org/resource/Alfred_Aboya', 'http://dbpedia.org/resource/Ali_Demić', 'http://dbpedia.org/resource/Ali_Doraghi', 'http://dbpedia.org/resource/Ali_Fakhreddine', 'http://dbpedia.org/resource/Ali_Haidar_(basketball)', 'http://dbpedia.org/resource/Ali_Jamal_Zaghab', 'http://dbpedia.org/resource/Ali_Traoré', 'http://dbpedia.org/resource/Alihan_Demir', 'http://dbpedia.org/resource/Alison_Bales', 'http://dbpedia.org/resource/Alize_Johnson', 'http://dbpedia.org/resource/Allan_Bristow', 'http://dbpedia.org/resource/Alonzo_Mourning', 'http://dbpedia.org/resource/Alperen_Şengün', 'http://dbpedia.org/resource/Alpha_Diallo_(basketball,_born_1997)', 'http://dbpedia.org/resource/Alpha_Kaba', 'http://dbpedia.org/resource/Alton_Ford', 'http://dbpedia.org/resource/Alton_Lister', 'http://dbpedia.org/resource/Alvan_Adams', 'http://dbpedia.org/resource/Álvaro_Teherán', 'http://dbpedia.org/resource/Alvin_Heggs', 'http://dbpedia.org/resource/Alvin_Jones_(basketball)', 'http://dbpedia.org/resource/Alvin_Scott', 'http://dbpedia.org/resource/Alzhan_Zharmukhamedov', 'http://dbpedia.org/resource/Amadou_Aboubakar_Zaki', 'http://dbpedia.org/resource/Amal_McCaskill', 'http://dbpedia.org/resource/Amanze_Egekeze', "http://dbpedia.org/resource/Amar'e_Stoudemire", 'http://dbpedia.org/resource/Amara_Sy', "http://dbpedia.org/resource/Amath_M'Baye", 'http://dbpedia.org/resource/Amen_Thompson', 'http://dbpedia.org/resource/Amida_Brimah', 'http://dbpedia.org/resource/Amile_Jefferson', 'http://dbpedia.org/resource/Amir_Coffey', 'http://dbpedia.org/resource/Amir_Johnson', 'http://dbpedia.org/resource/Amir_Sedighi', 'http://dbpedia.org/resource/Amjyot_Singh', 'http://dbpedia.org/resource/Amos_Thomas_(basketball)', 'http://dbpedia.org/resource/Anas_Mahmoud', 'http://dbpedia.org/resource/Anatoli_Polivoda', 'http://dbpedia.org/resource/Anatoly_Myshkin', 'http://dbpedia.org/resource/Anatoly_Zourpenko', 'http://dbpedia.org/resource/Anderson_Varejão', 'http://dbpedia.org/resource/Andrae_Patterson__Andrae_Patterson__1', 'http://dbpedia.org/resource/Andray_Blatche', 'http://dbpedia.org/resource/Andre_Brown_(basketball)', 'http://dbpedia.org/resource/Andre_Drummond', 'http://dbpedia.org/resource/André_Ernesto_Stoffel', 'http://dbpedia.org/resource/Andre_Hutson', 'http://dbpedia.org/resource/Andre_Moore', 'http://dbpedia.org/resource/Andre_Patterson', 'http://dbpedia.org/resource/Andre_Riddick', 'http://dbpedia.org/resource/André_Roberson', 'http://dbpedia.org/resource/Andre_Smith_(basketball,_born_1985)', 'http://dbpedia.org/resource/Andre_Smith_(Nebraska_basketball)', 'http://dbpedia.org/resource/Andrea_Bargnani', 'http://dbpedia.org/resource/Andrea_Conti_(basketball)', 'http://dbpedia.org/resource/Andrea_Crosariol', 'http://dbpedia.org/resource/Andrea_Meneghin', 'http://dbpedia.org/resource/Andreas_Glyniadakis', 'http://dbpedia.org/resource/Andreas_Kanonidis', 'http://dbpedia.org/resource/Andreas_Pelekoudas', 'http://dbpedia.org/resource/Andreas_Schreiber', 'http://dbpedia.org/resource/Andreas_Tsoumanis', 'http://dbpedia.org/resource/Andrei_Fetisov', 'http://dbpedia.org/resource/Andrei_Kirilenko', 'http://dbpedia.org/resource/Andrej_Stojaković', 'http://dbpedia.org/resource/Andrés_Guibert', 'http://dbpedia.org/resource/Andrés_Jiménez_(basketball)', 'http://dbpedia.org/resource/Andrés_Nocioni', 'http://dbpedia.org/resource/Andrew_Betts', 'http://dbpedia.org/resource/Andrew_Bogut', 'http://dbpedia.org/resource/Andrew_Bynum', 'http://dbpedia.org/resource/Andrew_DeClercq', 'http://dbpedia.org/resource/Andrew_Fields', 'http://dbpedia.org/resource/Andrew_Fitzgerald_(basketball)', 'http://dbpedia.org/resource/Andrew_Kennedy_(basketball)', 'http://dbpedia.org/resource/Andrew_Lang_(basketball)', 'http://dbpedia.org/resource/Andrew_Nicholson_(basketball)', 'http://dbpedia.org/resource/Andrew_Smith_(basketball,_born_1990)', 'http://dbpedia.org/resource/Andrew_Sullivan_(basketball)', 'http://dbpedia.org/resource/Andrew_Vlahov', 'http://dbpedia.org/resource/Andrew_White_(basketball)', 'http://dbpedia.org/resource/Andrew_Wiggins', 'http://dbpedia.org/resource/Andrey_Desyatnikov', 'http://dbpedia.org/resource/Andrey_Lopatov', 'http://dbpedia.org/resource/Andrianos_Perdikaris', 'http://dbpedia.org/resource/Andris_Biedriņš', 'http://dbpedia.org/resource/Andrius_Jurkūnas', 'http://dbpedia.org/resource/Andrius_Šležas', 'http://dbpedia.org/resource/Andriy_Malysh', 'http://dbpedia.org/resource/Andro_Knego', 'http://dbpedia.org/resource/Andronikos_Gizogiannis', 'http://dbpedia.org/resource/Andy_Ogide', 'http://dbpedia.org/resource/Andy_Panko', 'http://dbpedia.org/resource/Andy_Seigle', 'http://dbpedia.org/resource/Andy_Van_Vliet', 'http://dbpedia.org/resource/Ange_Kouame', 'http://dbpedia.org/resource/Ángel_Delgado', 'http://dbpedia.org/resource/Ángel_García_(basketball,_born_1988)__Ángel_García__1', 'http://dbpedia.org/resource/Angelo_Caloiaro', 'http://dbpedia.org/resource/Angelo_Chol', 'http://dbpedia.org/resource/Angelo_Gigli', 'http://dbpedia.org/resource/Angelo_Reyes_(basketball)', 'http://dbpedia.org/resource/Angelos_Siamandouras', 'http://dbpedia.org/resource/Anna_Prins', 'http://dbpedia.org/resource/Anne_Donovan', 'http://dbpedia.org/resource/Ansley_Truitt', 'http://dbpedia.org/resource/Ansu_Sesay', 'http://dbpedia.org/resource/Antanas_Kavaliauskas', 'http://dbpedia.org/resource/Antawn_Jamison', 'http://dbpedia.org/resource/Ante_Đugum', 'http://dbpedia.org/resource/Ante_Grgurević', 'http://dbpedia.org/resource/Ante_Krapić', 'http://dbpedia.org/resource/Ante_Mašić', 'http://dbpedia.org/resource/Ante_Žižić', 'http://dbpedia.org/resource/Anthony_Avent', 'http://dbpedia.org/resource/Anthony_Bennett_(basketball)', 'http://dbpedia.org/resource/Anthony_Bonner__Anthony_Bonner__1', 'http://dbpedia.org/resource/Anthony_Brown_(basketball)', 'http://dbpedia.org/resource/Anthony_Cook_(basketball)', 'http://dbpedia.org/resource/Anthony_Davis', 'http://dbpedia.org/resource/Anthony_Duruji', 'http://dbpedia.org/resource/Anthony_Elechi', 'http://dbpedia.org/resource/Anthony_Fernandez', 'http://dbpedia.org/resource/Anthony_Frederick', 'http://dbpedia.org/resource/Anthony_Gill_(basketball)', 'http://dbpedia.org/resource/Anthony_Jones_(basketball,_born_1967)', 'http://dbpedia.org/resource/Anthony_King_(basketball)', 'http://dbpedia.org/resource/Anthony_Lawrence_(basketball)', 'http://dbpedia.org/resource/Anthony_Mason_(basketball)', 'http://dbpedia.org/resource/Anthony_McHenry', 'http://dbpedia.org/resource/Anthony_Miller_(basketball)', 'http://dbpedia.org/resource/Anthony_Myles_(basketball,_born_1982)', 'http://dbpedia.org/resource/Anthony_Pelle', 'http://dbpedia.org/resource/Anthony_Pérez_(basketball)', 'http://dbpedia.org/resource/Anthony_Pullard', 'http://dbpedia.org/resource/Anthony_Randolph', 'http://dbpedia.org/resource/Anthony_Richardson_(basketball)', 'http://dbpedia.org/resource/Anthony_Smith_(basketball)', 'http://dbpedia.org/resource/Anthony_Stover', 'http://dbpedia.org/resource/Anthony_Teachey', 'http://dbpedia.org/resource/Anthony_Tolliver', 'http://dbpedia.org/resource/Anthony_Tucker_(basketball)', 'http://dbpedia.org/resource/Antoine_Carr', 'http://dbpedia.org/resource/Antoine_Joseph', 'http://dbpedia.org/resource/Antoine_Rigaudeau', 'http://dbpedia.org/resource/Antoine_Walker', 'http://dbpedia.org/resource/Antoine_Wright_(basketball)', 'http://dbpedia.org/resource/Anton_Odabasi', 'http://dbpedia.org/resource/Anton_Pushkov', 'http://dbpedia.org/resource/Anton_Shoutvin', 'http://dbpedia.org/resource/Anton_Watson', 'http://dbpedia.org/resource/Antone_Warren', 'http://dbpedia.org/resource/Antonio_Campbell', 'http://dbpedia.org/resource/Antonio_Davis__Antonio_Davis__1', 'http://dbpedia.org/resource/Antonio_Granger', 'http://dbpedia.org/resource/Antonio_Harvey', 'http://dbpedia.org/resource/Antonio_Lang', 'http://dbpedia.org/resource/Antonio_Martín_Espina', 'http://dbpedia.org/resource/Antonio_McDyess', 'http://dbpedia.org/resource/Antonio_Meeking', 'http://dbpedia.org/resource/Antonio_Reynolds-Dean', 'http://dbpedia.org/resource/Antonios_Asimakopoulos', 'http://dbpedia.org/resource/Antonis_Fotsis', 'http://dbpedia.org/resource/Antonis_Michaloglou', 'http://dbpedia.org/resource/Antti_Nikkilä', 'http://dbpedia.org/resource/Antwain_Smith', 'http://dbpedia.org/resource/Antwaine_Wiggins', 'http://dbpedia.org/resource/Antwan_January', 'http://dbpedia.org/resource/Antywane_Robinson', 'http://dbpedia.org/resource/Anwar_Ferguson', 'http://dbpedia.org/resource/Anžejs_Pasečņiks', 'http://dbpedia.org/resource/Aramis_Naglić', 'http://dbpedia.org/resource/Archie_Dees', 'http://dbpedia.org/resource/Archie_Marshall_(basketball)', 'http://dbpedia.org/resource/Argiris_Kambouris', 'http://dbpedia.org/resource/Argiris_Papapetrou', 'http://dbpedia.org/resource/Aric_Holman', 'http://dbpedia.org/resource/Arijan_Komazec', 'http://dbpedia.org/resource/Arinze_Onuaku', 'http://dbpedia.org/resource/Aristides_Josuel_dos_Santos', 'http://dbpedia.org/resource/Arman_Zangeneh', 'http://dbpedia.org/resource/Armando_Bacot', 'http://dbpedia.org/resource/Armen_Gilliam', 'http://dbpedia.org/resource/Arnaud_Cotture', 'http://dbpedia.org/resource/Arnett_Moultrie', 'http://dbpedia.org/resource/Arnette_Hallman', 'http://dbpedia.org/resource/Arnie_Risen', 'http://dbpedia.org/resource/Arnis_Vecvagars', 'http://dbpedia.org/resource/Arnold_Van_Opstal', 'http://dbpedia.org/resource/Aron_Baynes', 'http://dbpedia.org/resource/Arsalan_Kazemi', 'http://dbpedia.org/resource/Art_Becker', 'http://dbpedia.org/resource/Art_Hillhouse', 'http://dbpedia.org/resource/Art_Long', 'http://dbpedia.org/resource/Art_Spoelstra', 'http://dbpedia.org/resource/Artem_Zabelin', 'http://dbpedia.org/resource/Arthur_Johnson_(basketball)', 'http://dbpedia.org/resource/Arthur_Kaluma', 'http://dbpedia.org/resource/Arthur_Kenney_(basketball)', 'http://dbpedia.org/resource/Artis_Gilmore', 'http://dbpedia.org/resource/Artsiom_Parakhouski', 'http://dbpedia.org/resource/Artūras_Javtokas', 'http://dbpedia.org/resource/Artūras_Jomantas', 'http://dbpedia.org/resource/Artūras_Masiulis', 'http://dbpedia.org/resource/Arvid_Kramer', 'http://dbpedia.org/resource/Arvydas_Sabonis', 'http://dbpedia.org/resource/Asbjørn_Midtgaard', 'http://dbpedia.org/resource/Asghar_Kardoust', 'http://dbpedia.org/resource/Ashante_Johnson', 'http://dbpedia.org/resource/Ashley_Hamilton_(basketball)', 'http://dbpedia.org/resource/Ashraf_Amaya', 'http://dbpedia.org/resource/Ashton_Pankey', 'http://dbpedia.org/resource/Asi_Taulava', 'http://dbpedia.org/resource/Asım_Pars', 'http://dbpedia.org/resource/Asko_Paade', 'http://dbpedia.org/resource/Assem_Marei', 'http://dbpedia.org/resource/Astan_Dabo', 'http://dbpedia.org/resource/Atanas_Golomeev', 'http://dbpedia.org/resource/Ater_Majok', 'http://dbpedia.org/resource/Atsuya_Ota', 'http://dbpedia.org/resource/Attarius_Norwood', 'http://dbpedia.org/resource/Audie_Norris', 'http://dbpedia.org/resource/Augustine_Rubit', 'http://dbpedia.org/resource/Augusto_Binelli', 'http://dbpedia.org/resource/Augusto_Lima', 'http://dbpedia.org/resource/Augustus_Gilchrist', 'http://dbpedia.org/resource/Aulcie_Perry', 'http://dbpedia.org/resource/Aurimas_Kieža', 'http://dbpedia.org/resource/Aurimas_Majauskas', 'http://dbpedia.org/resource/Ausar_Thompson', 'http://dbpedia.org/resource/Austin_Croshere', 'http://dbpedia.org/resource/Austin_Dufault', 'http://dbpedia.org/resource/Austin_Nichols_(basketball)', 'http://dbpedia.org/resource/Austin_Steed', 'http://dbpedia.org/resource/Austin_Wiley', 'http://dbpedia.org/resource/Axel_Bouteille', 'http://dbpedia.org/resource/Axel_Hervelle', 'http://dbpedia.org/resource/Axel_Toupane', 'http://dbpedia.org/resource/Ayberk_Olmaz', 'http://dbpedia.org/resource/Ayman_Adais', 'http://dbpedia.org/resource/B._B._Davis', 'http://dbpedia.org/resource/B._H._Born', 'http://dbpedia.org/resource/B._J._Johnson_(basketball)', 'http://dbpedia.org/resource/Babacar_Camara', 'http://dbpedia.org/resource/Babacar_Sané', 'http://dbpedia.org/resource/Babacar_Touré', 'http://dbpedia.org/resource/Bailey_Howell', 'http://dbpedia.org/resource/Bakari_Hendrix', 'http://dbpedia.org/resource/Balša_Koprivica', 'http://dbpedia.org/resource/Balša_Radunović', 'http://dbpedia.org/resource/Bam_Adebayo', 'http://dbpedia.org/resource/Bamba_Fall', 'http://dbpedia.org/resource/Bambale_Osby', 'http://dbpedia.org/resource/Bara_Diop', 'http://dbpedia.org/resource/Bariša_Krasić', 'http://dbpedia.org/resource/Barış_Hersek', 'http://dbpedia.org/resource/Barney_Cable', 'http://dbpedia.org/resource/Barry_Mungar', 'http://dbpedia.org/resource/Barry_Nelson_(basketball)', 'http://dbpedia.org/resource/Barry_Sumpter', 'http://dbpedia.org/resource/Barry_Yates', 'http://dbpedia.org/resource/Bas_Veenstra', 'http://dbpedia.org/resource/Bassel_Bawji', 'http://dbpedia.org/resource/Bayard_Forrest', 'http://dbpedia.org/resource/Baye_Fall_(basketball)', 'http://dbpedia.org/resource/Beau_Beech', 'http://dbpedia.org/resource/Bechir_Hadidane', 'http://dbpedia.org/resource/BeeJay_Anya', 'http://dbpedia.org/resource/Beka_Burjanadze', 'http://dbpedia.org/resource/Bekir_Yarangüme', 'http://dbpedia.org/resource/Ben_Altit', 'http://dbpedia.org/resource/Ben_Carter_(basketball)', 'http://dbpedia.org/resource/Ben_Clyde', 'http://dbpedia.org/resource/Ben_Coleman_(basketball)', 'http://dbpedia.org/resource/Ben_Davis_(basketball)', 'http://dbpedia.org/resource/Ben_Eisenhardt', 'http://dbpedia.org/resource/Ben_Gillery', 'http://dbpedia.org/resource/Ben_Handlogten', 'http://dbpedia.org/resource/Ben_Lammers', 'http://dbpedia.org/resource/Ben_Lawson_(basketball)', 'http://dbpedia.org/resource/Ben_McCauley', 'http://dbpedia.org/resource/Ben_McDonald_(basketball)', 'http://dbpedia.org/resource/Ben_Moore_(basketball)', 'http://dbpedia.org/resource/Ben_Poquette', 'http://dbpedia.org/resource/Ben_Simmons', 'http://dbpedia.org/resource/Ben_Strong_(basketball)', 'http://dbpedia.org/resource/Ben_Sullivan_(basketball)', 'http://dbpedia.org/resource/Ben_Vander_Plas', 'http://dbpedia.org/resource/Ben_Wallace_(basketball)', 'http://dbpedia.org/resource/Ben_Wilson_(basketball)', 'http://dbpedia.org/resource/Benjamin_Eze', 'http://dbpedia.org/resource/Benjamin_Ortner', 'http://dbpedia.org/resource/Bennett_Davison', 'http://dbpedia.org/resource/Bennett_Koch', 'http://dbpedia.org/resource/Bennie_Boatwright', 'http://dbpedia.org/resource/Bennie_Swain', 'http://dbpedia.org/resource/Benny_Williams_(basketball)', 'http://dbpedia.org/resource/Benoit_Benjamin', 'http://dbpedia.org/resource/Berend_Weijs', 'http://dbpedia.org/resource/Berk_Demir', 'http://dbpedia.org/resource/Berkan_Durmaz', 'http://dbpedia.org/resource/Berkay_Candan', 'http://dbpedia.org/resource/Bernadett_Határ', 'http://dbpedia.org/resource/Bernard_James', 'http://dbpedia.org/resource/Bernard_King', 'http://dbpedia.org/resource/Bernard_Toone', 'http://dbpedia.org/resource/Berni_Tamames', 'http://dbpedia.org/resource/Bernie_Harris_(basketball)', 'http://dbpedia.org/resource/Betinho_(basketball)', 'http://dbpedia.org/resource/Bevo_Francis', 'http://dbpedia.org/resource/Bevo_Nordmann', 'http://dbpedia.org/resource/Big_Moose_Meyer', 'http://dbpedia.org/resource/Bill_Allen_(basketball)', 'http://dbpedia.org/resource/Bill_Amis', 'http://dbpedia.org/resource/Bill_Buntin', 'http://dbpedia.org/resource/Bill_Bunting', 'http://dbpedia.org/resource/Bill_Campion', 'http://dbpedia.org/resource/Bill_Cartwright', 'http://dbpedia.org/resource/Bill_Chmielewski', 'http://dbpedia.org/resource/Bill_Coven', 'http://dbpedia.org/resource/Bill_Curley', 'http://dbpedia.org/resource/Bill_Dinwiddie', 'http://dbpedia.org/resource/Bill_Garner_(basketball)', 'http://dbpedia.org/resource/Bill_Garnett', 'http://dbpedia.org/resource/Bill_Gossett', 'http://dbpedia.org/resource/Bill_Hanzlik', 'http://dbpedia.org/resource/Bill_Henry_(basketball)', 'http://dbpedia.org/resource/Bill_Hewitt_(basketball)', 'http://dbpedia.org/resource/Bill_Hosket_Jr.', 'http://dbpedia.org/resource/Bill_Jones_(basketball,_born_1966)', 'http://dbpedia.org/resource/Bill_Laimbeer', 'http://dbpedia.org/resource/Bill_Logan_(basketball)', 'http://dbpedia.org/resource/Bill_Martin_(basketball)', 'http://dbpedia.org/resource/Bill_Mayfield', 'http://dbpedia.org/resource/Bill_McGill', 'http://dbpedia.org/resource/Bill_Melis', 'http://dbpedia.org/resource/Bill_Newton_(basketball)', 'http://dbpedia.org/resource/Bill_Roberts_(basketball)', 'http://dbpedia.org/resource/Bill_Robinzine', 'http://dbpedia.org/resource/Bill_Russell', 'http://dbpedia.org/resource/Bill_Sattler', 'http://dbpedia.org/resource/Bill_Schrader', 'http://dbpedia.org/resource/Bill_Spivey', 'http://dbpedia.org/resource/Bill_Stricker', 'http://dbpedia.org/resource/Bill_Thieben', 'http://dbpedia.org/resource/Bill_Turner_(basketball)', 'http://dbpedia.org/resource/Bill_Uhl', 'http://dbpedia.org/resource/Bill_Varner', 'http://dbpedia.org/resource/Bill_Walton', 'http://dbpedia.org/resource/Bill_Wennington', 'http://dbpedia.org/resource/Bill_Willoughby', 'http://dbpedia.org/resource/Billy_McShepard', 'http://dbpedia.org/resource/Billy_Owens', 'http://dbpedia.org/resource/Billy_Paultz', 'http://dbpedia.org/resource/Billy_Preston_(basketball)', 'http://dbpedia.org/resource/Billy_Singleton', 'http://dbpedia.org/resource/Billy_Thompson_(basketball)', 'http://dbpedia.org/resource/Billy_White_(basketball)', 'http://dbpedia.org/resource/Bismack_Biyombo', 'http://dbpedia.org/resource/Bison_Dele', 'http://dbpedia.org/resource/Blagota_Sekulić', 'http://dbpedia.org/resource/Blair_Rasmussen', 'http://dbpedia.org/resource/Blake_Aoki_Borysewicz', 'http://dbpedia.org/resource/Blake_Griffin', 'http://dbpedia.org/resource/Blerim_Mazreku', 'http://dbpedia.org/resource/Bo_Ellis__Bo_Ellis__1', 'http://dbpedia.org/resource/Bo_Outlaw', 'http://dbpedia.org/resource/Bob_Allen_(basketball)', 'http://dbpedia.org/resource/Bob_Armstrong_(basketball,_born_1933)', 'http://dbpedia.org/resource/Bob_Bedell', 'http://dbpedia.org/resource/Bob_Bigelow', 'http://dbpedia.org/resource/Bob_Boozer', 'http://dbpedia.org/resource/Bob_Brown_(basketball,_born_1921)', 'http://dbpedia.org/resource/Bob_Burrow', 'http://dbpedia.org/resource/Bob_Christian_(basketball)', 'http://dbpedia.org/resource/Bob_Cluggish', 'http://dbpedia.org/resource/Bob_Davis_(basketball_player)__Bob_Davis__1', 'http://dbpedia.org/resource/Bob_Dykstra', 'http://dbpedia.org/resource/Bob_Elliott_(basketball)', 'http://dbpedia.org/resource/Bob_Ferry', 'http://dbpedia.org/resource/Bob_Ford_(basketball)', 'http://dbpedia.org/resource/Bob_Greacen', 'http://dbpedia.org/resource/Bob_Hahn', 'http://dbpedia.org/resource/Bob_Harris_(basketball)', 'http://dbpedia.org/resource/Bob_Hogsett', 'http://dbpedia.org/resource/Bob_Hopkins__Bob_Hopkins__1', 'http://dbpedia.org/resource/Bob_Houbregs', 'http://dbpedia.org/resource/Bob_Kauffman', 'http://dbpedia.org/resource/Bob_Kurland', 'http://dbpedia.org/resource/Bob_Lanier', 'http://dbpedia.org/resource/Bob_Lavoy', 'http://dbpedia.org/resource/Bob_Lienhard', 'http://dbpedia.org/resource/Bob_Love', 'http://dbpedia.org/resource/Bob_Martin_(basketball)', 'http://dbpedia.org/resource/Bob_Mattick', 'http://dbpedia.org/resource/Bob_McAdoo', 'http://dbpedia.org/resource/Bob_McCurdy', 'http://dbpedia.org/resource/Bob_McKeen', 'http://dbpedia.org/resource/Bob_Miller_(basketball)', 'http://dbpedia.org/resource/Bob_Morse', 'http://dbpedia.org/resource/Bob_Myers', 'http://dbpedia.org/resource/Bob_Nash_(basketball)', 'http://dbpedia.org/resource/Bob_Netolicky', 'http://dbpedia.org/resource/Bob_Pelkington', 'http://dbpedia.org/resource/Bob_Pettit', 'http://dbpedia.org/resource/Bob_Riley_(basketball)', 'http://dbpedia.org/resource/Bob_Rule', 'http://dbpedia.org/resource/Bob_Spessard', 'http://dbpedia.org/resource/Bob_Thornton', 'http://dbpedia.org/resource/Bob_Woollard', 'http://dbpedia.org/resource/Boban_Janković', 'http://dbpedia.org/resource/Boban_Marjanović', 'http://dbpedia.org/resource/Bobby_Cattage', 'http://dbpedia.org/resource/Bobby_Croft', 'http://dbpedia.org/resource/Bobby_Jones_(basketball,_born_1951)', 'http://dbpedia.org/resource/Bobby_Jones_(basketball,_born_1984)', 'http://dbpedia.org/resource/Bobby_Lee_Hurt', 'http://dbpedia.org/resource/Bobby_Portis', 'http://dbpedia.org/resource/Bobby_Simmons', 'http://dbpedia.org/resource/Bobby_Speight', 'http://dbpedia.org/resource/Bobby_Watson_(basketball_coach)', 'http://dbpedia.org/resource/Bobby_Wilson_(basketball,_born_1944)', 'http://dbpedia.org/resource/Bojan_Subotić', 'http://dbpedia.org/resource/Bol_Bol', 'http://dbpedia.org/resource/Bonel_Balingit', "http://dbpedia.org/resource/Boniface_N'Dong", 'http://dbpedia.org/resource/Boo_Jackson__Boo_Jackson__1', 'http://dbpedia.org/resource/Bora_Paçun', 'http://dbpedia.org/resource/Boris_Diaw', 'http://dbpedia.org/resource/Boštjan_Nachbar', 'http://dbpedia.org/resource/Boubacar_Aw', 'http://dbpedia.org/resource/Boubacar_Coly', 'http://dbpedia.org/resource/Boubacar_Toure', 'http://dbpedia.org/resource/Brad_Branson', 'http://dbpedia.org/resource/Brad_Daugherty_(basketball)', 'http://dbpedia.org/resource/Brad_Lohaus', 'http://dbpedia.org/resource/Brad_Miley', 'http://dbpedia.org/resource/Brad_Miller_(basketball)', 'http://dbpedia.org/resource/Brad_Robinson_(basketball)', 'http://dbpedia.org/resource/Brad_Waldow', 'http://dbpedia.org/resource/Brad_Wright_(basketball)', 'http://dbpedia.org/resource/Bradley_Buckman', 'http://dbpedia.org/resource/Brady_Manek', 'http://dbpedia.org/resource/Brandan_Wright', 'http://dbpedia.org/resource/Brandon_Bass', 'http://dbpedia.org/resource/Brandon_Bowman', 'http://dbpedia.org/resource/Brandon_Clarke', 'http://dbpedia.org/resource/Brandon_Cole', 'http://dbpedia.org/resource/Brandon_Costner', 'http://dbpedia.org/resource/Brandon_Davies', 'http://dbpedia.org/resource/Brandon_Gilbeck', 'http://dbpedia.org/resource/Brandon_Hunter', 'http://dbpedia.org/resource/Brandon_Huntley-Hatfield', 'http://dbpedia.org/resource/Brandon_Ingram', 'http://dbpedia.org/resource/Brandon_McCoy', 'http://dbpedia.org/resource/Brandon_Miller_(basketball,_born_2002)', 'http://dbpedia.org/resource/Brandon_Penn', 'http://dbpedia.org/resource/Brandon_Sebirumbi', 'http://dbpedia.org/resource/Brandon_Slater', 'http://dbpedia.org/resource/Brandon_Ubel', 'http://dbpedia.org/resource/Brandon_Wallace', 'http://dbpedia.org/resource/Brant_Weidner', 'http://dbpedia.org/resource/Braxton_Key', 'http://dbpedia.org/resource/Brayon_Blake', 'http://dbpedia.org/resource/Brekkott_Chapman', 'http://dbpedia.org/resource/Brendan_Haywood', 'http://dbpedia.org/resource/Brendan_Lane_(basketball)', 'http://dbpedia.org/resource/Brennan_McElroy', 'http://dbpedia.org/resource/Brent_Barry', 'http://dbpedia.org/resource/Brent_Petway', 'http://dbpedia.org/resource/Brent_Scott_(basketball)', 'http://dbpedia.org/resource/Brent_Wright', 'http://dbpedia.org/resource/Bret_Brielmaier', 'http://dbpedia.org/resource/Brett_Roberts', 'http://dbpedia.org/resource/Brett_Szabo', 'http://dbpedia.org/resource/Brett_Vroman', 'http://dbpedia.org/resource/Brian_Beshara', 'http://dbpedia.org/resource/Brian_Butch', 'http://dbpedia.org/resource/Brian_Cardinal', 'http://dbpedia.org/resource/Brian_Cook_(basketball)', 'http://dbpedia.org/resource/Brian_Cusworth', 'http://dbpedia.org/resource/Brian_Davis_(basketball)', 'http://dbpedia.org/resource/Brian_Evans_(basketball)', 'http://dbpedia.org/resource/Brian_Fitzpatrick_(basketball)', 'http://dbpedia.org/resource/Brian_Grant', 'http://dbpedia.org/resource/Brian_Jackson_(basketball)', 'http://dbpedia.org/resource/Brian_Kerle', 'http://dbpedia.org/resource/Brian_Martin_(basketball)', 'http://dbpedia.org/resource/Brian_Oliver_(basketball,_born_1990)', 'http://dbpedia.org/resource/Brian_Quinnett', 'http://dbpedia.org/resource/Brian_Qvale', 'http://dbpedia.org/resource/Brian_Randle__Brian_Randle__1', 'http://dbpedia.org/resource/Brian_Rowsom', 'http://dbpedia.org/resource/Brian_Scalabrine', 'http://dbpedia.org/resource/Brian_Skinner', 'http://dbpedia.org/resource/Brian_Zoubek', 'http://dbpedia.org/resource/Brice_Assie__Brice_Assie__1', 'http://dbpedia.org/resource/Brice_Johnson', 'http://dbpedia.org/resource/Brice_Vounang', 'http://dbpedia.org/resource/Bright_Akhuetie', 'http://dbpedia.org/resource/Britton_Johnsen', 'http://dbpedia.org/resource/Brock_Motum', 'http://dbpedia.org/resource/Brook_Lopez', 'http://dbpedia.org/resource/Bruce_Bolden', 'http://dbpedia.org/resource/Bruce_Bowen', 'http://dbpedia.org/resource/Bruce_Flowers', 'http://dbpedia.org/resource/Bruce_Kuczenski', 'http://dbpedia.org/resource/Bruce_Seals', 'http://dbpedia.org/resource/Bruno_Boin', 'http://dbpedia.org/resource/Bruno_Caboclo', 'http://dbpedia.org/resource/Bruno_Coqueran', 'http://dbpedia.org/resource/Bruno_Fernando', 'http://dbpedia.org/resource/Bruno_Šundov', 'http://dbpedia.org/resource/Bruno-Nazaire_Kongaouin', 'http://dbpedia.org/resource/Bryan_Bracey', 'http://dbpedia.org/resource/Bryan_Davis_(basketball)', 'http://dbpedia.org/resource/Bryant_Dunston', 'http://dbpedia.org/resource/Bryant_Reeves', 'http://dbpedia.org/resource/Bryant_Smith', 'http://dbpedia.org/resource/Bryce_Douvier', 'http://dbpedia.org/resource/Bryce_Washington_(basketball)', 'http://dbpedia.org/resource/Bryon_Russell', 'http://dbpedia.org/resource/Bryson_Williams', '</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
   </si>
   <si>
     <t>['http://dbpedia.org/resource/Aaron_Xuereb', 'http://dbpedia.org/resource/Adrian_Ciantar', 'http://dbpedia.org/resource/Adrian_Mifsud', 'http://dbpedia.org/resource/Adrian_Pulis', 'http://dbpedia.org/resource/Alishia_Sultana', 'http://dbpedia.org/resource/Andrei_Agius', 'http://dbpedia.org/resource/Andrew_Cohen_(footballer)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1977)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1981)', 'http://dbpedia.org/resource/Brenda_Borg', 'http://dbpedia.org/resource/Brian_Said', 'http://dbpedia.org/resource/Brian_Strutt', 'http://dbpedia.org/resource/Callum_Talbot', 'http://dbpedia.org/resource/Carlo_Mamo', 'http://dbpedia.org/resource/Charles_Azzopardi', 'http://dbpedia.org/resource/Charles_Micallef', 'http://dbpedia.org/resource/Charles_Muscat', 'http://dbpedia.org/resource/Charlie_Williams_(footballer,_born_1944)', 'http://dbpedia.org/resource/Claude_Mattocks', 'http://dbpedia.org/resource/Cleavon_Frendo', 'http://dbpedia.org/resource/Cornelius_Hogan', 'http://dbpedia.org/resource/Daniel_Theuma', 'http://dbpedia.org/resource/Darren_Debono', 'http://dbpedia.org/resource/David_Camilleri', 'http://dbpedia.org/resource/David_Cluett', 'http://dbpedia.org/resource/Denis_Cauchi', 'http://dbpedia.org/resource/Dennis_Mizzi', 'http://dbpedia.org/resource/Dexter_Xuereb', 'http://dbpedia.org/resource/Dorianne_Theuma', 'http://dbpedia.org/resource/Edmond_Agius', 'http://dbpedia.org/resource/Edward_Azzopardi', 'http://dbpedia.org/resource/Emanuel_Fabri', 'http://dbpedia.org/resource/Emma_Xuerreb', 'http://dbpedia.org/resource/Gareth_Sciberras', 'http://dbpedia.org/resource/George_Mallia', 'http://dbpedia.org/resource/Hubert_Suda', 'http://dbpedia.org/resource/Ian_Azzopardi', 'http://dbpedia.org/resource/Ian_Ciantar', 'http://dbpedia.org/resource/Ivan_Zammit', 'http://dbpedia.org/resource/Jade_Flask', 'http://dbpedia.org/resource/Jamie_Zerafa', 'http://dbpedia.org/resource/Jean_Paul_Farrugia', 'http://dbpedia.org/resource/Jeffrey_Chetcuti', 'http://dbpedia.org/resource/Jesmond_Delia', 'http://dbpedia.org/resource/Joe_Brincat', 'http://dbpedia.org/resource/Johann_Bezzina', 'http://dbpedia.org/resource/John_Bonello', 'http://dbpedia.org/resource/John_McNeill_(footballer)', 'http://dbpedia.org/resource/Jonathan_Caruana', 'http://dbpedia.org/resource/Jonathan_Holland_(footballer)', 'http://dbpedia.org/resource/Jonathan_Magri_Overend', 'http://dbpedia.org/resource/Josef_Mifsud', 'http://dbpedia.org/resource/Joseph_Farrugia', 'http://dbpedia.org/resource/Juan_Carlos_Corbalan', 'http://dbpedia.org/resource/Justin_Haber', 'http://dbpedia.org/resource/Kenneth_Scicluna', 'http://dbpedia.org/resource/Kevin_Sammut', 'http://dbpedia.org/resource/Kristian_Laferla', 'http://dbpedia.org/resource/Lino_Galea', 'http://dbpedia.org/resource/Lolly_Vella', 'http://dbpedia.org/resource/Malcolm_Licari', 'http://dbpedia.org/resource/Maria_Farrugia', 'http://dbpedia.org/resource/Mario_Farrugia', 'http://dbpedia.org/resource/Martina_Borg', 'http://dbpedia.org/resource/Massimo_Grima', 'http://dbpedia.org/resource/Matthew_Guillaumier', 'http://dbpedia.org/resource/Michael_Cutajar', 'http://dbpedia.org/resource/Michael_Galea', 'http://dbpedia.org/resource/Michael_Johnson_(footballer,_born_1994)', 'http://dbpedia.org/resource/Nicole_Buttigieg', 'http://dbpedia.org/resource/Nicole_Sciberras', 'http://dbpedia.org/resource/Noel_Turner_(footballer)', 'http://dbpedia.org/resource/Paul_Fenech_(footballer)', 'http://dbpedia.org/resource/Pierre_Aquilina', 'http://dbpedia.org/resource/Ray_Farrugia', 'http://dbpedia.org/resource/Raymond_Xuereb', "http://dbpedia.org/resource/Rebecca_D'Agostino", 'http://dbpedia.org/resource/Reginald_Cini', 'http://dbpedia.org/resource/Roderick_Briffa', 'http://dbpedia.org/resource/Ronnie_Cocks', 'http://dbpedia.org/resource/Saviour_Darmanin', 'http://dbpedia.org/resource/Sean_Sullivan_(footballer)', 'http://dbpedia.org/resource/Simon_Tortell', 'http://dbpedia.org/resource/Stefan_Giglio', 'http://dbpedia.org/resource/Stefania_Farrugia', 'http://dbpedia.org/resource/Stephen_Wellman', 'http://dbpedia.org/resource/Steve_Bezzina', 'http://dbpedia.org/resource/Steve_Pisani', 'http://dbpedia.org/resource/Terence_Scerri', 'http://dbpedia.org/resource/Terence_Vella', 'http://dbpedia.org/resource/Vincent_Borg_Bonaci', 'http://dbpedia.org/resource/William_Camenzuli']</t>
@@ -1257,112 +2046,102 @@
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"Bundesliga\\": extraneous input \'Bundesliga\' expecting {\'(\', \'{\', \'}\', \'[\', \'true\', \'false\', SELECT, VALUES, GRAPH, OPTIONAL, SERVICE, BIND, MINUS, FILTER, IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 156,\n        "query": "PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbp:class db:Club ; dbp:partOf db:{{{Bundesliga}}}. }",\n        "startIndex": 156,\n        "stopIndex": 165\n    },\n    "query": "PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbp:class db:Club ; dbp:partOf db:{{{Bundesliga}}}. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"Bundesliga\\": extraneous input \'Bundesliga\' expecting {\'(\', \'{\', \'}\', \'[\', \'true\', \'false\', SELECT, VALUES, GRAPH, OPTIONAL, SERVICE, BIND, MINUS, FILTER, IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 156,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbp:class db:Club ; dbp:partOf db:{{{Bundesliga}}}. }",\n        "startIndex": 533,\n        "stopIndex": 542\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbp:class db:Club ; dbp:partOf db:{{{Bundesliga}}}. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"/\\": mismatched input \'/\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 335,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?recordLabel ?label WHERE { ?album dbo:artist &lt;http://dbpedia.org/resource/Elvis_Presley&gt; . ?album dbo:releaseDate ?releaseDate . ?album dbo:recordLabel ?recordLabel . ?recordLabel rdfs:label ?label . FILTER (?releaseDate = \\"1956\\") // Assuming Elvis\'s first album was released in 1956 } ORDER BY ?releaseDate LIMIT 1",\n        "startIndex": 335,\n        "stopIndex": 335\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?recordLabel ?label WHERE { ?album dbo:artist &lt;http://dbpedia.org/resource/Elvis_Presley&gt; . ?album dbo:releaseDate ?releaseDate . ?album dbo:recordLabel ?recordLabel . ?recordLabel rdfs:label ?label . FILTER (?releaseDate = \\"1956\\") // Assuming Elvis\'s first album was released in 1956 } ORDER BY ?releaseDate LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"/\\": mismatched input \'/\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 335,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?recordLabel ?label WHERE { ?album dbo:artist &lt;http://dbpedia.org/resource/Elvis_Presley&gt; . ?album dbo:releaseDate ?releaseDate . ?album dbo:recordLabel ?recordLabel . ?recordLabel rdfs:label ?label . FILTER (?releaseDate = \\"1956\\") // Assuming Elvis\'s first album was released in 1956 } ORDER BY ?releaseDate LIMIT 1",\n        "startIndex": 669,\n        "stopIndex": 669\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?recordLabel ?label WHERE { ?album dbo:artist &lt;http://dbpedia.org/resource/Elvis_Presley&gt; . ?album dbo:releaseDate ?releaseDate . ?album dbo:recordLabel ?recordLabel . ?recordLabel rdfs:label ?label . FILTER (?releaseDate = \\"1956\\") // Assuming Elvis\'s first album was released in 1956 } ORDER BY ?releaseDate LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;http://dbpedia.org/ontology/director&gt;\\": mismatched input \'&lt;http://dbpedia.org/ontology/director&gt;\' expecting \')\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 299,\n        "query": "SELECT DISTINCT ?film WHERE { ?film a &lt;http://dbpedia.org/ontology/Film&gt; . OPTIONAL { ?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt; } . OPTIONAL { ?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; } . FILTER ((?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt;) &amp;&amp; (?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt;)) }",\n        "startIndex": 299,\n        "stopIndex": 336\n    },\n    "query": "SELECT DISTINCT ?film WHERE { ?film a &lt;http://dbpedia.org/ontology/Film&gt; . OPTIONAL { ?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt; } . OPTIONAL { ?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; } . FILTER ((?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt;) &amp;&amp; (?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt;)) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;http://dbpedia.org/ontology/director&gt;\\": mismatched input \'&lt;http://dbpedia.org/ontology/director&gt;\' expecting \')\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 299,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?film WHERE { ?film a &lt;http://dbpedia.org/ontology/Film&gt; . OPTIONAL { ?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt; } . OPTIONAL { ?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; } . FILTER ((?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt;) &amp;&amp; (?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt;)) }",\n        "startIndex": 676,\n        "stopIndex": 713\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?film WHERE { ?film a &lt;http://dbpedia.org/ontology/Film&gt; . OPTIONAL { ?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt; } . OPTIONAL { ?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; } . FILTER ((?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt;) &amp;&amp; (?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt;)) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"EXTRACT\\": extraneous input \'EXTRACT\' expecting {\'(\', \'+\', \'!\', \'-\', \'true\', \'false\', GROUP_CONCAT, NOT, STR, LANG, LANGMATCHES, DATATYPE, BOUND, IRI, URI, BNODE, RAND, ABS, CEIL, FLOOR, ROUND, CONCAT, STRLEN, UCASE, LCASE, ENCODE_FOR_URI, CONTAINS, STRSTARTS, STRENDS, STRBEFORE, STRAFTER, YEAR, MONTH, DAY, HOURS, MINUTES, SECONDS, TIMEZONE, TZ, NOW, UUID, STRUUID, SHA1, SHA256, SHA384, SHA512, MD5, COALESCE, IF, STRLANG, STRDT, SAMETERM, ISIRI, ISURI, ISBLANK, ISLITERAL, ISNUMERIC, REGEX, SUBSTR, REPLACE, EXISTS, COUNT, SUM, MIN, MAX, AVG, SAMPLE, IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 272,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbprop: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?year WHERE { dbpedia:Rachel_Stevens dbprop:birthDate ?date . BIND(EXTRACT(YEAR FROM ?date) as ?year) }",\n        "startIndex": 272,\n        "stopIndex": 278\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbprop: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?year WHERE { dbpedia:Rachel_Stevens dbprop:birthDate ?date . BIND(EXTRACT(YEAR FROM ?date) as ?year) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"EXTRACT\\": extraneous input \'EXTRACT\' expecting {\'(\', \'+\', \'!\', \'-\', \'true\', \'false\', GROUP_CONCAT, NOT, STR, LANG, LANGMATCHES, DATATYPE, BOUND, IRI, URI, BNODE, RAND, ABS, CEIL, FLOOR, ROUND, CONCAT, STRLEN, UCASE, LCASE, ENCODE_FOR_URI, CONTAINS, STRSTARTS, STRENDS, STRBEFORE, STRAFTER, YEAR, MONTH, DAY, HOURS, MINUTES, SECONDS, TIMEZONE, TZ, NOW, UUID, STRUUID, SHA1, SHA256, SHA384, SHA512, MD5, COALESCE, IF, STRLANG, STRDT, SAMETERM, ISIRI, ISURI, ISBLANK, ISLITERAL, ISNUMERIC, REGEX, SUBSTR, REPLACE, EXISTS, COUNT, SUM, MIN, MAX, AVG, SAMPLE, IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 272,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbprop: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?year WHERE { dbpedia:Rachel_Stevens dbprop:birthDate ?date . BIND(EXTRACT(YEAR FROM ?date) as ?year) }",\n        "startIndex": 649,\n        "stopIndex": 655\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbprop: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?year WHERE { dbpedia:Rachel_Stevens dbprop:birthDate ?date . BIND(EXTRACT(YEAR FROM ?date) as ?year) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 61,\n        "query": "SELECT ?currency WHERE { &lt;http://dbpedia.org/resource/China&gt; rdfs:seeAlso ?currency ; &lt;http://dbpedia.org/ontology/type&gt; \\"currency\\" . }",\n        "startIndex": 61,\n        "stopIndex": 72\n    },\n    "query": "SELECT ?currency WHERE { &lt;http://dbpedia.org/resource/China&gt; rdfs:seeAlso ?currency ; &lt;http://dbpedia.org/ontology/type&gt; \\"currency\\" . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 61,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?currency WHERE { &lt;http://dbpedia.org/resource/China&gt; rdfs:seeAlso ?currency ; &lt;http://dbpedia.org/ontology/type&gt; \\"currency\\" . }",\n        "startIndex": 438,\n        "stopIndex": 449\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?currency WHERE { &lt;http://dbpedia.org/resource/China&gt; rdfs:seeAlso ?currency ; &lt;http://dbpedia.org/ontology/type&gt; \\"currency\\" . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix owl was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 199,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?island WHERE { ?island dbpedia-owl:instanceOf &lt;http://dbpedia.org/ontology/Island&gt;; owl:someValuesFrom ?country. ?island dbpedia-owl:country ?country. FILTER(?country = &lt;http://dbpedia.org/resource/Japan&gt;). }",\n        "startIndex": 199,\n        "stopIndex": 216\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?island WHERE { ?island dbpedia-owl:instanceOf &lt;http://dbpedia.org/ontology/Island&gt;; owl:someValuesFrom ?country. ?island dbpedia-owl:country ?country. FILTER(?country = &lt;http://dbpedia.org/resource/Japan&gt;). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix owl was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 199,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?island WHERE { ?island dbpedia-owl:instanceOf &lt;http://dbpedia.org/ontology/Island&gt;; owl:someValuesFrom ?country. ?island dbpedia-owl:country ?country. FILTER(?country = &lt;http://dbpedia.org/resource/Japan&gt;). }",\n        "startIndex": 576,\n        "stopIndex": 593\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?island WHERE { ?island dbpedia-owl:instanceOf &lt;http://dbpedia.org/ontology/Island&gt;; owl:someValuesFrom ?country. ?island dbpedia-owl:country ?country. FILTER(?country = &lt;http://dbpedia.org/resource/Japan&gt;). }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 219,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?uri dbo:starring &lt;http://dbpedia.org/resource/Neil_Patrick_Harris&gt; . ?uri rdf:type ?type . ?type rdfs:subClassOf* dbo:TelevisionShow . }",\n        "startIndex": 219,\n        "stopIndex": 233\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?uri dbo:starring &lt;http://dbpedia.org/resource/Neil_Patrick_Harris&gt; . ?uri rdf:type ?type . ?type rdfs:subClassOf* dbo:TelevisionShow . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 219,\n        "query": "PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?uri dbo:starring &lt;http://dbpedia.org/resource/Neil_Patrick_Harris&gt; . ?uri rdf:type ?type . ?type rdfs:subClassOf* dbo:TelevisionShow . }",\n        "startIndex": 495,\n        "stopIndex": 509\n    },\n    "query": "PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?uri dbo:starring &lt;http://dbpedia.org/resource/Neil_Patrick_Harris&gt; . ?uri rdf:type ?type . ?type rdfs:subClassOf* dbo:TelevisionShow . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 168,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { ?res a dbpedia-owl:Mountain . ?res dbpedia-owl:elevation ?elevation . ?res dbpedia-owl:continent dbpedia:Europe . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1",\n        "startIndex": 168,\n        "stopIndex": 181\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { ?res a dbpedia-owl:Mountain . ?res dbpedia-owl:elevation ?elevation . ?res dbpedia-owl:continent dbpedia:Europe . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 168,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { ?res a dbpedia-owl:Mountain . ?res dbpedia-owl:elevation ?elevation . ?res dbpedia-owl:continent dbpedia:Europe . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1",\n        "startIndex": 545,\n        "stopIndex": 558\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { ?res a dbpedia-owl:Mountain . ?res dbpedia-owl:elevation ?elevation . ?res dbpedia-owl:continent dbpedia:Europe . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"Claudia_Schiffer\\": extraneous input \'Claudia_Schiffer\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 85,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia: Claudia_Schiffer dbpedia:height ?val . }",\n        "startIndex": 85,\n        "stopIndex": 100\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia: Claudia_Schiffer dbpedia:height ?val . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"Claudia_Schiffer\\": extraneous input \'Claudia_Schiffer\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 85,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia: Claudia_Schiffer dbpedia:height ?val . }",\n        "startIndex": 462,\n        "stopIndex": 477\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbpedia: Claudia_Schiffer dbpedia:height ?val . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>EndPointInternalError: The endpoint returned the HTTP status code 500. 
 Response:
-b'{\n    "exception": "Triples should have at least one variable. Not the case in: {s: &lt;http://dbpedia.org/Michael_Jordan&gt;, p: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#type&gt;, o: &lt;http://dbpedia.org/Person&gt;}. In file \\"/app/src/engine/QueryPlanner.cpp \\" at line 677",\n    "query": "PREFIX db: &lt;http://dbpedia.org/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?val WHERE { db:Michael_Jordan a db:Person; db:height ?val . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Triples should have at least one variable. Not the case in: {s: &lt;http://dbpedia.org/Michael_Jordan&gt;, p: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#type&gt;, o: &lt;http://dbpedia.org/Person&gt;}. In file \\"/app/src/engine/QueryPlanner.cpp \\" at line 677",\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX db: &lt;http://dbpedia.org/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?val WHERE { db:Michael_Jordan a db:Person; db:height ?val . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: ( ... ) in triples is not yet supported by QLever.",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 202,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?uri WHERE { ?uri owl:intersectionOf (?type rdf:type dbpedia-owl:Holiday) . }",\n        "startIndex": 202,\n        "stopIndex": 237\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?uri WHERE { ?uri owl:intersectionOf (?type rdf:type dbpedia-owl:Holiday) . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: ( ... ) in triples is not yet supported by QLever.",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 202,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?uri WHERE { ?uri owl:intersectionOf (?type rdf:type dbpedia-owl:Holiday) . }",\n        "startIndex": 579,\n        "stopIndex": 614\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT DISTINCT ?uri WHERE { ?uri owl:intersectionOf (?type rdf:type dbpedia-owl:Holiday) . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\";\\": extraneous input \';\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 146,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbprop: &lt;http://dbpedia.org/prop/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:PoliticalParty ; dbprop:country &lt;http://dbpedia.org/resource/Greece&gt; ; dbprop:ideology &lt;http://dbpedia.org/resource/Pro-Europeanism&gt; . }",\n        "startIndex": 146,\n        "stopIndex": 146\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbprop: &lt;http://dbpedia.org/prop/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:PoliticalParty ; dbprop:country &lt;http://dbpedia.org/resource/Greece&gt; ; dbprop:ideology &lt;http://dbpedia.org/resource/Pro-Europeanism&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\";\\": extraneous input \';\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 146,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbprop: &lt;http://dbpedia.org/prop/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:PoliticalParty ; dbprop:country &lt;http://dbpedia.org/resource/Greece&gt; ; dbprop:ideology &lt;http://dbpedia.org/resource/Pro-Europeanism&gt; . }",\n        "startIndex": 523,\n        "stopIndex": 523\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbprop: &lt;http://dbpedia.org/prop/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:PoliticalParty ; dbprop:country &lt;http://dbpedia.org/resource/Greece&gt; ; dbprop:ideology &lt;http://dbpedia.org/resource/Pro-Europeanism&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 80,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Three_Dancers dbpedia-owl:author ?painter . ?painter dbpedia-owl:styleOrMovement ?uri . }",\n        "startIndex": 80,\n        "stopIndex": 100\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Three_Dancers dbpedia-owl:author ?painter . ?painter dbpedia-owl:styleOrMovement ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 80,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Three_Dancers dbpedia-owl:author ?painter . ?painter dbpedia-owl:styleOrMovement ?uri . }",\n        "startIndex": 457,\n        "stopIndex": 477\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Three_Dancers dbpedia-owl:author ?painter . ?painter dbpedia-owl:styleOrMovement ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"owl:sameAs\\": missing \')\' at \'owl:sameAs\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 255,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT ?uri WHERE { ?uri dbpedia:birthPlace dbp:Vienna . ?uri dbpedia:deathPlace ?deathLocation . FILTER(?deathLocation owl:sameAs dbp:Berlin) } UNION { ?uri dbpedia:deathPlace dbp:Berlin . ?uri dbpedia:birthPlace ?birthLocation . FILTER(?birthLocation owl:sameAs dbp:Vienna) }",\n        "startIndex": 255,\n        "stopIndex": 264\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT ?uri WHERE { ?uri dbpedia:birthPlace dbp:Vienna . ?uri dbpedia:deathPlace ?deathLocation . FILTER(?deathLocation owl:sameAs dbp:Berlin) } UNION { ?uri dbpedia:deathPlace dbp:Berlin . ?uri dbpedia:birthPlace ?birthLocation . FILTER(?birthLocation owl:sameAs dbp:Vienna) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"owl:sameAs\\": missing \')\' at \'owl:sameAs\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 255,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT ?uri WHERE { ?uri dbpedia:birthPlace dbp:Vienna . ?uri dbpedia:deathPlace ?deathLocation . FILTER(?deathLocation owl:sameAs dbp:Berlin) } UNION { ?uri dbpedia:deathPlace dbp:Berlin . ?uri dbpedia:birthPlace ?birthLocation . FILTER(?birthLocation owl:sameAs dbp:Vienna) }",\n        "startIndex": 632,\n        "stopIndex": 641\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/resource/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; SELECT ?uri WHERE { ?uri dbpedia:birthPlace dbp:Vienna . ?uri dbpedia:deathPlace ?deathLocation . FILTER(?deathLocation owl:sameAs dbp:Berlin) } UNION { ?uri dbpedia:deathPlace dbp:Berlin . ?uri dbpedia:birthPlace ?birthLocation . FILTER(?birthLocation owl:sameAs dbp:Vienna) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 125,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?bridge WHERE { ?bridge a dbpedia-owl:Bridge ; dbpedia-owl:crosses dbpedia:Seine . }",\n        "startIndex": 125,\n        "stopIndex": 137\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?bridge WHERE { ?bridge a dbpedia-owl:Bridge ; dbpedia-owl:crosses dbpedia:Seine . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 125,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?bridge WHERE { ?bridge a dbpedia-owl:Bridge ; dbpedia-owl:crosses dbpedia:Seine . }",\n        "startIndex": 502,\n        "stopIndex": 514\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?bridge WHERE { ?bridge a dbpedia-owl:Bridge ; dbpedia-owl:crosses dbpedia:Seine . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"Book\\": mismatched input \'Book\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 174,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:occupation res:Musician . ?x dbpedia:type Book ; dbpedia:author ?uri . } GROUP BY ?uri ORDER BY DESC(COUNT(?x)) LIMIT 1",\n        "startIndex": 174,\n        "stopIndex": 177\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:occupation res:Musician . ?x dbpedia:type Book ; dbpedia:author ?uri . } GROUP BY ?uri ORDER BY DESC(COUNT(?x)) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"Book\\": mismatched input \'Book\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 174,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:occupation res:Musician . ?x dbpedia:type Book ; dbpedia:author ?uri . } GROUP BY ?uri ORDER BY DESC(COUNT(?x)) LIMIT 1",\n        "startIndex": 551,\n        "stopIndex": 554\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:occupation res:Musician . ?x dbpedia:type Book ; dbpedia:author ?uri . } GROUP BY ?uri ORDER BY DESC(COUNT(?x)) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri rdf:type &lt;http://dbpedia.org/ontology/Film&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Gere&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . }",\n        "startIndex": 34,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri rdf:type &lt;http://dbpedia.org/ontology/Film&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Gere&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 155,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:SoccerPlayer ?soccerPlayerType ; dbo:birthPlace ?birthPlace . ?birthPlace rdfs:label \\"Malta\\" . }",\n        "startIndex": 489,\n        "stopIndex": 498\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:SoccerPlayer ?soccerPlayerType ; dbo:birthPlace ?birthPlace . ?birthPlace rdfs:label \\"Malta\\" . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 155,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:SoccerPlayer ?soccerPlayerType ; dbo:birthPlace ?birthPlace . ?birthPlace rdfs:label \\"Malta\\" . }",\n        "startIndex": 155,\n        "stopIndex": 164\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:SoccerPlayer ?soccerPlayerType ; dbo:birthPlace ?birthPlace . ?birthPlace rdfs:label \\"Malta\\" . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"?nationality\\": mismatched input \'?nationality\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 107,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Astronaut dbo:nationality ?nationality . FILTER ( (?nationality = dbo:Soviet_Union) OR (?nationality = dbo:Russia) ) }",\n        "startIndex": 441,\n        "stopIndex": 452\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Astronaut dbo:nationality ?nationality . FILTER ( (?nationality = dbo:Soviet_Union) OR (?nationality = dbo:Russia) ) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"?nationality\\": mismatched input \'?nationality\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 107,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Astronaut dbo:nationality ?nationality . FILTER ( (?nationality = dbo:Soviet_Union) OR (?nationality = dbo:Russia) ) }",\n        "startIndex": 107,\n        "stopIndex": 118\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Astronaut dbo:nationality ?nationality . FILTER ( (?nationality = dbo:Soviet_Union) OR (?nationality = dbo:Russia) ) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 75,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?creator WHERE { dbpedia:Batman db:creator ?creator . }",\n        "startIndex": 452,\n        "stopIndex": 465\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?creator WHERE { dbpedia:Batman db:creator ?creator . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 75,\n        "query": "PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?creator WHERE { dbpedia:Batman db:creator ?creator . }",\n        "startIndex": 75,\n        "stopIndex": 88\n    },\n    "query": "PREFIX db: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?creator WHERE { dbpedia:Batman db:creator ?creator . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"Pulp_Fiction\\": extraneous input \'Pulp_Fiction\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 124,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?value WHERE { db: Pulp_Fiction dbpedia: budget ?value . }",\n        "startIndex": 124,\n        "stopIndex": 135\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?value WHERE { db: Pulp_Fiction dbpedia: budget ?value . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 139,\n        "query": "PREFIX db: &lt;http://dbpedia.org/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { db:Angela_Merkel dbo:almaMater ?res . ?res rdf:type dbo:EducationalInstitution . }",\n        "startIndex": 139,\n        "stopIndex": 146\n    },\n    "query": "PREFIX db: &lt;http://dbpedia.org/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?res WHERE { db:Angela_Merkel dbo:almaMater ?res . ?res rdf:type dbo:EducationalInstitution . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"Pulp_Fiction\\": extraneous input \'Pulp_Fiction\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 124,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?value WHERE { db: Pulp_Fiction dbpedia: budget ?value . }",\n        "startIndex": 501,\n        "stopIndex": 512\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?value WHERE { db: Pulp_Fiction dbpedia: budget ?value . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>Missing rdf:type</t>
@@ -1372,6 +2151,21 @@
   </si>
   <si>
     <t>Structural Error</t>
+  </si>
+  <si>
+    <t>Error Category 2</t>
+  </si>
+  <si>
+    <t>Error Category 3</t>
+  </si>
+  <si>
+    <t>Error Category 4</t>
+  </si>
+  <si>
+    <t>Wrong Ontology</t>
+  </si>
+  <si>
+    <t>Wrong Resource</t>
   </si>
   <si>
     <t>Resource treated as Ontology</t>
@@ -1745,13 +2539,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1776,8 +2570,17 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1788,13 +2591,13 @@
         <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1803,7 +2606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1814,13 +2617,13 @@
         <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1829,7 +2632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1840,22 +2643,25 @@
         <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="I4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1866,13 +2672,13 @@
         <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1881,7 +2687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1892,22 +2698,31 @@
         <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
+        <v>432</v>
+      </c>
+      <c r="I6" t="s">
+        <v>437</v>
+      </c>
+      <c r="J6" t="s">
+        <v>438</v>
+      </c>
+      <c r="K6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1918,22 +2733,22 @@
         <v>213</v>
       </c>
       <c r="D7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1944,13 +2759,13 @@
         <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -1959,7 +2774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1970,13 +2785,13 @@
         <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1985,7 +2800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1993,16 +2808,16 @@
         <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="D10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -2011,7 +2826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2019,16 +2834,16 @@
         <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -2037,7 +2852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2045,25 +2860,25 @@
         <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2071,25 +2886,28 @@
         <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E13" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I13" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2097,25 +2915,28 @@
         <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E14" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
+        <v>432</v>
+      </c>
+      <c r="I14" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2123,16 +2944,16 @@
         <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2141,7 +2962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2149,25 +2970,28 @@
         <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E16" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F16" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2175,25 +2999,28 @@
         <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E17" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F17" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="s">
+        <v>432</v>
+      </c>
+      <c r="I17" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2201,25 +3028,28 @@
         <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E18" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F18" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="s">
+        <v>432</v>
+      </c>
+      <c r="I18" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2227,25 +3057,25 @@
         <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E19" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F19" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2253,16 +3083,16 @@
         <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F20" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2271,7 +3101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2279,16 +3109,16 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E21" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F21" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2297,7 +3127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2305,16 +3135,16 @@
         <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F22" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2323,7 +3153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2331,25 +3161,28 @@
         <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E23" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F23" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+      <c r="I23" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2357,25 +3190,25 @@
         <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E24" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F24" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2383,16 +3216,16 @@
         <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F25" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -2401,7 +3234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2409,16 +3242,16 @@
         <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F26" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2427,7 +3260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2435,16 +3268,16 @@
         <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D27" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E27" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -2453,7 +3286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2461,16 +3294,16 @@
         <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F28" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -2479,7 +3312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2487,25 +3320,31 @@
         <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E29" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F29" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="s">
+        <v>432</v>
+      </c>
+      <c r="I29" t="s">
+        <v>437</v>
+      </c>
+      <c r="J29" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2513,16 +3352,16 @@
         <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E30" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F30" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -2531,7 +3370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2539,25 +3378,25 @@
         <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E31" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F31" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2565,25 +3404,28 @@
         <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F32" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="s">
+        <v>432</v>
+      </c>
+      <c r="I32" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2591,16 +3433,16 @@
         <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F33" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -2609,7 +3451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2617,25 +3459,28 @@
         <v>140</v>
       </c>
       <c r="C34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E34" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F34" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I34" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2643,25 +3488,28 @@
         <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D35" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E35" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F35" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I35" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2669,25 +3517,28 @@
         <v>142</v>
       </c>
       <c r="C36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E36" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F36" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="s">
+        <v>432</v>
+      </c>
+      <c r="I36" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2695,16 +3546,16 @@
         <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D37" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E37" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F37" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -2713,7 +3564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2721,16 +3572,16 @@
         <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D38" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E38" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F38" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -2739,7 +3590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2747,16 +3598,16 @@
         <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D39" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E39" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F39" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -2765,7 +3616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2773,16 +3624,16 @@
         <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D40" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E40" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F40" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -2791,7 +3642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2799,25 +3650,25 @@
         <v>147</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D41" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E41" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F41" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2825,25 +3676,28 @@
         <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D42" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E42" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F42" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="I42" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2851,25 +3705,31 @@
         <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D43" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E43" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F43" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="s">
+        <v>432</v>
+      </c>
+      <c r="I43" t="s">
+        <v>437</v>
+      </c>
+      <c r="J43" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2877,25 +3737,25 @@
         <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D44" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E44" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F44" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2903,16 +3763,16 @@
         <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D45" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E45" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F45" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -2921,7 +3781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2929,16 +3789,16 @@
         <v>152</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -2947,7 +3807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2955,25 +3815,28 @@
         <v>153</v>
       </c>
       <c r="C47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D47" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E47" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F47" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I47" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2981,25 +3844,25 @@
         <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D48" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E48" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F48" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -3007,25 +3870,28 @@
         <v>155</v>
       </c>
       <c r="C49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E49" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F49" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="I49" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -3033,16 +3899,16 @@
         <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D50" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E50" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F50" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -3051,7 +3917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3059,16 +3925,16 @@
         <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D51" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E51" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F51" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -3077,7 +3943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -3085,16 +3951,16 @@
         <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D52" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E52" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F52" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -3103,7 +3969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -3111,16 +3977,16 @@
         <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D53" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E53" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F53" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -3129,7 +3995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3137,16 +4003,16 @@
         <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D54" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E54" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F54" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -3155,7 +4021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -3163,25 +4029,28 @@
         <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D55" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E55" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F55" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I55" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3189,25 +4058,25 @@
         <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D56" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E56" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F56" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3215,16 +4084,16 @@
         <v>163</v>
       </c>
       <c r="C57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D57" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E57" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F57" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -3233,7 +4102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -3241,25 +4110,28 @@
         <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D58" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E58" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F58" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I58" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3267,16 +4139,16 @@
         <v>165</v>
       </c>
       <c r="C59" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F59" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -3285,7 +4157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3293,25 +4165,31 @@
         <v>166</v>
       </c>
       <c r="C60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D60" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E60" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F60" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="s">
+        <v>437</v>
+      </c>
+      <c r="I60" t="s">
+        <v>438</v>
+      </c>
+      <c r="J60" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3319,16 +4197,16 @@
         <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F61" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
@@ -3337,7 +4215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3345,16 +4223,16 @@
         <v>168</v>
       </c>
       <c r="C62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D62" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E62" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F62" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
@@ -3363,7 +4241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3371,16 +4249,16 @@
         <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D63" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E63" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F63" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3389,7 +4267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3397,25 +4275,28 @@
         <v>170</v>
       </c>
       <c r="C64" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D64" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E64" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F64" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="s">
+        <v>432</v>
+      </c>
+      <c r="I64" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3423,25 +4304,28 @@
         <v>171</v>
       </c>
       <c r="C65" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D65" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E65" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F65" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="s">
+        <v>432</v>
+      </c>
+      <c r="I65" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3449,16 +4333,16 @@
         <v>172</v>
       </c>
       <c r="C66" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D66" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E66" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F66" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
@@ -3467,7 +4351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3475,25 +4359,31 @@
         <v>173</v>
       </c>
       <c r="C67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D67" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E67" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F67" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="s">
+        <v>432</v>
+      </c>
+      <c r="I67" t="s">
+        <v>437</v>
+      </c>
+      <c r="J67" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3501,25 +4391,25 @@
         <v>174</v>
       </c>
       <c r="C68" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D68" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E68" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F68" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3527,16 +4417,16 @@
         <v>175</v>
       </c>
       <c r="C69" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D69" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E69" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F69" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -3545,7 +4435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3553,16 +4443,16 @@
         <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D70" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E70" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F70" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
@@ -3571,7 +4461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3579,25 +4469,28 @@
         <v>177</v>
       </c>
       <c r="C71" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D71" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E71" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F71" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="I71" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3605,25 +4498,25 @@
         <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D72" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E72" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F72" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3631,25 +4524,28 @@
         <v>179</v>
       </c>
       <c r="C73" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D73" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E73" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F73" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="I73" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3657,25 +4553,28 @@
         <v>180</v>
       </c>
       <c r="C74" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D74" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E74" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F74" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I74" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3683,25 +4582,28 @@
         <v>181</v>
       </c>
       <c r="C75" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D75" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E75" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F75" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="s">
+        <v>432</v>
+      </c>
+      <c r="I75" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3709,25 +4611,31 @@
         <v>182</v>
       </c>
       <c r="C76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D76" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E76" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F76" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="s">
+        <v>432</v>
+      </c>
+      <c r="I76" t="s">
+        <v>439</v>
+      </c>
+      <c r="J76" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3735,25 +4643,31 @@
         <v>183</v>
       </c>
       <c r="C77" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D77" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E77" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F77" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="s">
+        <v>432</v>
+      </c>
+      <c r="I77" t="s">
+        <v>437</v>
+      </c>
+      <c r="J77" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3761,16 +4675,16 @@
         <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D78" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E78" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F78" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
@@ -3779,7 +4693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3787,25 +4701,31 @@
         <v>185</v>
       </c>
       <c r="C79" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D79" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E79" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F79" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I79" t="s">
+        <v>437</v>
+      </c>
+      <c r="J79" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3813,16 +4733,16 @@
         <v>186</v>
       </c>
       <c r="C80" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D80" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E80" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F80" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
@@ -3831,7 +4751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3839,16 +4759,16 @@
         <v>187</v>
       </c>
       <c r="C81" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D81" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E81" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F81" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
@@ -3857,7 +4777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3865,25 +4785,28 @@
         <v>188</v>
       </c>
       <c r="C82" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D82" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E82" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F82" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I82" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3891,25 +4814,25 @@
         <v>189</v>
       </c>
       <c r="C83" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D83" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="E83" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="F83" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3917,16 +4840,16 @@
         <v>190</v>
       </c>
       <c r="C84" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D84" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E84" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F84" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
@@ -3935,7 +4858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3943,13 +4866,13 @@
         <v>191</v>
       </c>
       <c r="C85" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D85" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E85" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F85" t="s">
         <v>427</v>
@@ -3958,10 +4881,16 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
+        <v>432</v>
+      </c>
+      <c r="I85" t="s">
+        <v>438</v>
+      </c>
+      <c r="J85" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3969,16 +4898,16 @@
         <v>192</v>
       </c>
       <c r="C86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D86" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E86" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F86" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -3987,7 +4916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3995,25 +4924,25 @@
         <v>193</v>
       </c>
       <c r="C87" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D87" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E87" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F87" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -4021,13 +4950,13 @@
         <v>194</v>
       </c>
       <c r="C88" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D88" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E88" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F88" t="s">
         <v>428</v>
@@ -4036,10 +4965,16 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="I88" t="s">
+        <v>438</v>
+      </c>
+      <c r="J88" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -4047,16 +4982,16 @@
         <v>195</v>
       </c>
       <c r="C89" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D89" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E89" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F89" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -4065,7 +5000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -4073,25 +5008,25 @@
         <v>196</v>
       </c>
       <c r="C90" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D90" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E90" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F90" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -4099,13 +5034,13 @@
         <v>197</v>
       </c>
       <c r="C91" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D91" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E91" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F91" t="s">
         <v>429</v>
@@ -4114,10 +5049,13 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
+        <v>432</v>
+      </c>
+      <c r="I91" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -4125,16 +5063,16 @@
         <v>198</v>
       </c>
       <c r="C92" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D92" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E92" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F92" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
@@ -4143,7 +5081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -4151,16 +5089,16 @@
         <v>199</v>
       </c>
       <c r="C93" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D93" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E93" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F93" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -4169,7 +5107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -4177,16 +5115,16 @@
         <v>200</v>
       </c>
       <c r="C94" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D94" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E94" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F94" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
@@ -4195,7 +5133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -4203,13 +5141,13 @@
         <v>201</v>
       </c>
       <c r="C95" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D95" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E95" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F95" t="s">
         <v>430</v>
@@ -4218,10 +5156,13 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
+        <v>432</v>
+      </c>
+      <c r="I95" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -4229,25 +5170,28 @@
         <v>202</v>
       </c>
       <c r="C96" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D96" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E96" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F96" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I96" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -4255,25 +5199,28 @@
         <v>203</v>
       </c>
       <c r="C97" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D97" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E97" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F97" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I97" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -4281,16 +5228,16 @@
         <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D98" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E98" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F98" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
@@ -4299,7 +5246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -4307,25 +5254,28 @@
         <v>205</v>
       </c>
       <c r="C99" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D99" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E99" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F99" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="I99" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -4333,16 +5283,16 @@
         <v>206</v>
       </c>
       <c r="C100" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D100" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E100" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F100" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
@@ -4350,8 +5300,11 @@
       <c r="H100" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -4359,16 +5312,16 @@
         <v>207</v>
       </c>
       <c r="C101" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D101" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E101" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F101" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
@@ -4378,7 +5331,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>